--- a/legendre_out/DATA/o17_1/a0/o17_1_a0Fit.xlsx
+++ b/legendre_out/DATA/o17_1/a0/o17_1_a0Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,19 +398,19 @@
         <v>3.996</v>
       </c>
       <c r="B2" t="n">
-        <v>4.890376754881459e-13</v>
+        <v>2.419036395989603e-11</v>
       </c>
       <c r="C2" t="n">
-        <v>2.117200452556629e-13</v>
+        <v>1.516592044444733e-12</v>
       </c>
       <c r="D2" t="n">
-        <v>3.280062054041603</v>
+        <v>26.0708929580515</v>
       </c>
       <c r="E2" t="n">
-        <v>0.772963578649233</v>
+        <v>0.0002159727846261764</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5466770090069338</v>
+        <v>4.345148826341917</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         <v>4.001</v>
       </c>
       <c r="B3" t="n">
-        <v>5.813771283998986e-13</v>
+        <v>2.399763750973762e-11</v>
       </c>
       <c r="C3" t="n">
-        <v>3.077176363607147e-13</v>
+        <v>1.653585991505715e-12</v>
       </c>
       <c r="D3" t="n">
-        <v>5.04585402701685</v>
+        <v>16.07610219414747</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5379456054434866</v>
+        <v>0.01335127316677868</v>
       </c>
       <c r="F3" t="n">
-        <v>0.840975671169475</v>
+        <v>2.679350365691245</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +438,19 @@
         <v>4.0029</v>
       </c>
       <c r="B4" t="n">
-        <v>2.3057603517058e-12</v>
+        <v>1.61198064509182e-11</v>
       </c>
       <c r="C4" t="n">
-        <v>8.284134963550646e-13</v>
+        <v>1.394884473837098e-12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8683766582482909</v>
+        <v>17.28310355286489</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9901137591883966</v>
+        <v>0.008297218848934728</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1447294430413818</v>
+        <v>2.880517258810816</v>
       </c>
     </row>
     <row r="5">
@@ -458,19 +458,19 @@
         <v>4.007</v>
       </c>
       <c r="B5" t="n">
-        <v>3.306945151259431e-12</v>
+        <v>1.440382312937299e-11</v>
       </c>
       <c r="C5" t="n">
-        <v>1.181327033533811e-12</v>
+        <v>1.753325338795967e-12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.779036893004698</v>
+        <v>42.76996334024376</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9926240014898783</v>
+        <v>1.29529830128326e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1298394821674497</v>
+        <v>7.128327223373961</v>
       </c>
     </row>
     <row r="6">
@@ -478,19 +478,19 @@
         <v>4.0091</v>
       </c>
       <c r="B6" t="n">
-        <v>3.431131741356333e-12</v>
+        <v>8.819339591962309e-12</v>
       </c>
       <c r="C6" t="n">
-        <v>1.19847435808644e-12</v>
+        <v>1.682411709458876e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4190950244615451</v>
+        <v>17.71893376621847</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9986883921457461</v>
+        <v>0.006974355794740051</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06984917074359084</v>
+        <v>2.953155627703078</v>
       </c>
     </row>
     <row r="7">
@@ -498,19 +498,19 @@
         <v>4.01</v>
       </c>
       <c r="B7" t="n">
-        <v>3.030238671080388e-12</v>
+        <v>1.332347571135809e-11</v>
       </c>
       <c r="C7" t="n">
-        <v>1.147528665153676e-12</v>
+        <v>2.389161294082392e-12</v>
       </c>
       <c r="D7" t="n">
-        <v>1.642273504009162</v>
+        <v>5.381546228119165</v>
       </c>
       <c r="E7" t="n">
-        <v>0.949490273388011</v>
+        <v>0.4958874435968549</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2737122506681937</v>
+        <v>0.8969243713531941</v>
       </c>
     </row>
     <row r="8">
@@ -518,19 +518,19 @@
         <v>4.0151</v>
       </c>
       <c r="B8" t="n">
-        <v>2.427959455149135e-12</v>
+        <v>3.194558375300926e-12</v>
       </c>
       <c r="C8" t="n">
-        <v>9.893679605775748e-13</v>
+        <v>7.069001624126689e-13</v>
       </c>
       <c r="D8" t="n">
-        <v>2.59301821433673</v>
+        <v>71.65143835161915</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8579156475622572</v>
+        <v>1.87361544013024e-13</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4321697023894549</v>
+        <v>11.94190639193653</v>
       </c>
     </row>
     <row r="9">
@@ -538,19 +538,19 @@
         <v>4.0191</v>
       </c>
       <c r="B9" t="n">
-        <v>3.852048801180531e-12</v>
+        <v>2.116332019965848e-12</v>
       </c>
       <c r="C9" t="n">
-        <v>1.445713004316823e-12</v>
+        <v>4.051052496148751e-13</v>
       </c>
       <c r="D9" t="n">
-        <v>1.516021562564316</v>
+        <v>344.0454889829776</v>
       </c>
       <c r="E9" t="n">
-        <v>0.958423207512356</v>
+        <v>2.928614509104369e-71</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2526702604273861</v>
+        <v>57.34091483049627</v>
       </c>
     </row>
     <row r="10">
@@ -558,19 +558,19 @@
         <v>4.0199</v>
       </c>
       <c r="B10" t="n">
-        <v>1.827869788307489e-13</v>
+        <v>6.513895850130803e-13</v>
       </c>
       <c r="C10" t="n">
-        <v>1.360856919344472e-13</v>
+        <v>3.38533498218902e-13</v>
       </c>
       <c r="D10" t="n">
-        <v>6.811263972097986</v>
+        <v>22.94808565577229</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3386547518880657</v>
+        <v>0.000814053812614435</v>
       </c>
       <c r="F10" t="n">
-        <v>1.135210662016331</v>
+        <v>3.824680942628715</v>
       </c>
     </row>
     <row r="11">
@@ -578,19 +578,19 @@
         <v>4.025</v>
       </c>
       <c r="B11" t="n">
-        <v>3.597365189601709e-12</v>
+        <v>2.295641514890245e-12</v>
       </c>
       <c r="C11" t="n">
-        <v>1.2791024001495e-12</v>
+        <v>6.481993963192239e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7057134653432889</v>
+        <v>53.01067445887742</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9943669326323</v>
+        <v>1.167497406199904e-09</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1176189108905482</v>
+        <v>8.835112409812902</v>
       </c>
     </row>
     <row r="12">
@@ -598,19 +598,19 @@
         <v>4.03</v>
       </c>
       <c r="B12" t="n">
-        <v>2.631636391310308e-12</v>
+        <v>1.382705375876586e-11</v>
       </c>
       <c r="C12" t="n">
-        <v>1.001126442159391e-12</v>
+        <v>1.766612019741478e-12</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4746813355312423</v>
+        <v>6.55809387990886</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9930210480276058</v>
+        <v>0.3636518028314234</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09493626710624845</v>
+        <v>1.093015646651477</v>
       </c>
     </row>
     <row r="13">
@@ -618,19 +618,19 @@
         <v>4.0351</v>
       </c>
       <c r="B13" t="n">
-        <v>2.890607008527418e-12</v>
+        <v>5.112518565119251e-12</v>
       </c>
       <c r="C13" t="n">
-        <v>1.079968562264457e-12</v>
+        <v>1.702865809957311e-12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2206104464914491</v>
+        <v>5.050264312785973</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9988758696516841</v>
+        <v>0.4097767375828458</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04412208929828983</v>
+        <v>1.010052862557195</v>
       </c>
     </row>
     <row r="14">
@@ -638,19 +638,19 @@
         <v>4.27</v>
       </c>
       <c r="B14" t="n">
-        <v>3.100396201119928e-12</v>
+        <v>2.335237486457756e-11</v>
       </c>
       <c r="C14" t="n">
-        <v>1.123143482890265e-12</v>
+        <v>1.275797627903237e-12</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9952277776049381</v>
+        <v>105.3474749695513</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9857925809124124</v>
+        <v>1.91748013754775e-20</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1658712962674897</v>
+        <v>17.55791249492522</v>
       </c>
     </row>
     <row r="15">
@@ -658,19 +658,19 @@
         <v>4.2901</v>
       </c>
       <c r="B15" t="n">
-        <v>1.621436666764423e-12</v>
+        <v>3.475770298422979e-11</v>
       </c>
       <c r="C15" t="n">
-        <v>6.930670411737919e-13</v>
+        <v>1.567122059902812e-12</v>
       </c>
       <c r="D15" t="n">
-        <v>3.142081662486296</v>
+        <v>129.2433738303671</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7908144910186323</v>
+        <v>1.85491318460529e-25</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5236802770810494</v>
+        <v>21.54056230506119</v>
       </c>
     </row>
     <row r="16">
@@ -678,19 +678,19 @@
         <v>4.2911</v>
       </c>
       <c r="B16" t="n">
-        <v>3.824870771878254e-12</v>
+        <v>3.015771363966917e-11</v>
       </c>
       <c r="C16" t="n">
-        <v>1.491529830974129e-12</v>
+        <v>1.752303621732053e-12</v>
       </c>
       <c r="D16" t="n">
-        <v>2.039265879833059</v>
+        <v>84.73779791965065</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9160521085615461</v>
+        <v>3.740921675232141e-16</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3398776466388432</v>
+        <v>14.12296631994177</v>
       </c>
     </row>
     <row r="17">
@@ -698,19 +698,19 @@
         <v>4.2932</v>
       </c>
       <c r="B17" t="n">
-        <v>5.507101509954834e-12</v>
+        <v>3.065894314545506e-11</v>
       </c>
       <c r="C17" t="n">
-        <v>2.050897577668508e-12</v>
+        <v>1.941829813979958e-12</v>
       </c>
       <c r="D17" t="n">
-        <v>1.40500353109823</v>
+        <v>112.378099204345</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9655533356949291</v>
+        <v>6.473428341567721e-22</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2341672551830383</v>
+        <v>18.72968320072417</v>
       </c>
     </row>
     <row r="18">
@@ -718,19 +718,19 @@
         <v>4.2942</v>
       </c>
       <c r="B18" t="n">
-        <v>4.244863425582973e-12</v>
+        <v>3.187167222689237e-11</v>
       </c>
       <c r="C18" t="n">
-        <v>1.828122763395093e-12</v>
+        <v>2.138453022777732e-12</v>
       </c>
       <c r="D18" t="n">
-        <v>3.223796210470756</v>
+        <v>17.05281063831716</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7802791707379295</v>
+        <v>0.004400721530510088</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5372993684117926</v>
+        <v>3.410562127663432</v>
       </c>
     </row>
     <row r="19">
@@ -738,19 +738,19 @@
         <v>4.2951</v>
       </c>
       <c r="B19" t="n">
-        <v>6.568015652661888e-12</v>
+        <v>2.913844547238651e-11</v>
       </c>
       <c r="C19" t="n">
-        <v>2.455833063255353e-12</v>
+        <v>2.088341855023908e-12</v>
       </c>
       <c r="D19" t="n">
-        <v>1.462673682716342</v>
+        <v>13.46485980029886</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9619353470413766</v>
+        <v>0.03621999328578465</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2437789471193904</v>
+        <v>2.244143300049811</v>
       </c>
     </row>
     <row r="20">
@@ -758,19 +758,19 @@
         <v>4.2962</v>
       </c>
       <c r="B20" t="n">
-        <v>3.422907243558725e-12</v>
+        <v>2.393038901859753e-11</v>
       </c>
       <c r="C20" t="n">
-        <v>1.398176435137713e-12</v>
+        <v>2.090475672656833e-12</v>
       </c>
       <c r="D20" t="n">
-        <v>2.622080659862967</v>
+        <v>53.14912851156978</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8545625074294904</v>
+        <v>1.094892554430225e-09</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4370134433104946</v>
+        <v>8.858188085261629</v>
       </c>
     </row>
     <row r="21">
@@ -778,19 +778,19 @@
         <v>4.2972</v>
       </c>
       <c r="B21" t="n">
-        <v>1.006307306595248e-11</v>
+        <v>4.653207417867252e-11</v>
       </c>
       <c r="C21" t="n">
-        <v>3.471342860396511e-12</v>
+        <v>2.876611014568104e-12</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2117679792682569</v>
+        <v>17.34643163415236</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998172140341237</v>
+        <v>0.0080909346731186</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03529466321137615</v>
+        <v>2.891071939025394</v>
       </c>
     </row>
     <row r="22">
@@ -798,19 +798,19 @@
         <v>4.2981</v>
       </c>
       <c r="B22" t="n">
-        <v>2.167112740232284e-11</v>
+        <v>3.116973640709823e-11</v>
       </c>
       <c r="C22" t="n">
-        <v>7.79789424483082e-12</v>
+        <v>6.066819159339795e-12</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8919881747259444</v>
+        <v>3.073559283231527</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9893775084648343</v>
+        <v>0.7995593702060108</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1486646957876574</v>
+        <v>0.5122598805385878</v>
       </c>
     </row>
     <row r="23">
@@ -818,19 +818,19 @@
         <v>4.2991</v>
       </c>
       <c r="B23" t="n">
-        <v>3.472291972999204e-11</v>
+        <v>2.501529249518993e-11</v>
       </c>
       <c r="C23" t="n">
-        <v>1.269083681610194e-11</v>
+        <v>6.124142587145838e-12</v>
       </c>
       <c r="D23" t="n">
-        <v>1.129347903890644</v>
+        <v>11.26999676053306</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9802305795796113</v>
+        <v>0.08038179405993902</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1882246506484407</v>
+        <v>1.878332793422176</v>
       </c>
     </row>
     <row r="24">
@@ -838,19 +838,19 @@
         <v>4.3011</v>
       </c>
       <c r="B24" t="n">
-        <v>3.869892966353756e-11</v>
+        <v>4.57194970466553e-12</v>
       </c>
       <c r="C24" t="n">
-        <v>1.511435373392812e-11</v>
+        <v>2.339271128754302e-12</v>
       </c>
       <c r="D24" t="n">
-        <v>2.059689576931294</v>
+        <v>7.842751631883091</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9141278631231861</v>
+        <v>0.1651174781147846</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3432815961552158</v>
+        <v>1.568550326376618</v>
       </c>
     </row>
     <row r="25">
@@ -858,19 +858,19 @@
         <v>4.3031</v>
       </c>
       <c r="B25" t="n">
-        <v>5.417834465982674e-11</v>
+        <v>2.533839673459832e-11</v>
       </c>
       <c r="C25" t="n">
-        <v>1.949094087304174e-11</v>
+        <v>7.465644859803972e-12</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8888304164474986</v>
+        <v>7.43288473406828</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9894777594024983</v>
+        <v>0.1903846358788223</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1481384027412498</v>
+        <v>1.486576946813656</v>
       </c>
     </row>
     <row r="26">
@@ -878,19 +878,19 @@
         <v>4.3052</v>
       </c>
       <c r="B26" t="n">
-        <v>6.380637046626706e-11</v>
+        <v>1.31467967224265e-12</v>
       </c>
       <c r="C26" t="n">
-        <v>2.208827918762957e-11</v>
+        <v>1.016730485220856e-12</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2708078116504997</v>
+        <v>7.71121090992023</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9996260712405658</v>
+        <v>0.1027484353475965</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04513463527508329</v>
+        <v>1.927802727480058</v>
       </c>
     </row>
     <row r="27">
@@ -898,19 +898,19 @@
         <v>4.3072</v>
       </c>
       <c r="B27" t="n">
-        <v>4.962229871734535e-11</v>
+        <v>8.750997399306571e-13</v>
       </c>
       <c r="C27" t="n">
-        <v>1.766282356116914e-11</v>
+        <v>6.71289528456035e-13</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7225410369734674</v>
+        <v>15.02623588397797</v>
       </c>
       <c r="E27" t="n">
-        <v>0.993991623665222</v>
+        <v>0.004647110358430833</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1204235061622446</v>
+        <v>3.756558970994493</v>
       </c>
     </row>
     <row r="28">
@@ -918,19 +918,19 @@
         <v>4.3093</v>
       </c>
       <c r="B28" t="n">
-        <v>5.071605889677541e-11</v>
+        <v>4.773111829806024e-12</v>
       </c>
       <c r="C28" t="n">
-        <v>1.770937587320591e-11</v>
+        <v>2.396552170982104e-12</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4140509157213222</v>
+        <v>7.947222073620956</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9987328135385125</v>
+        <v>0.09353076178386684</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0690084859535537</v>
+        <v>1.986805518405239</v>
       </c>
     </row>
     <row r="29">
@@ -938,19 +938,19 @@
         <v>4.31</v>
       </c>
       <c r="B29" t="n">
-        <v>5.236268249333898e-11</v>
+        <v>2.707549223704288e-11</v>
       </c>
       <c r="C29" t="n">
-        <v>1.854201201983759e-11</v>
+        <v>8.742715184808594e-12</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6403962614162833</v>
+        <v>2.965169637809282</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9956881895358587</v>
+        <v>0.7053558105885956</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1067327102360472</v>
+        <v>0.5930339275618564</v>
       </c>
     </row>
     <row r="30">
@@ -958,19 +958,19 @@
         <v>4.3112</v>
       </c>
       <c r="B30" t="n">
-        <v>5.162396695699666e-11</v>
+        <v>1.297964210454615e-11</v>
       </c>
       <c r="C30" t="n">
-        <v>1.821895445337448e-11</v>
+        <v>4.790146898397278e-12</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5864883299157208</v>
+        <v>9.332766512245609</v>
       </c>
       <c r="E30" t="n">
-        <v>0.996621430934489</v>
+        <v>0.09650497216298751</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09774805498595346</v>
+        <v>1.866553302449122</v>
       </c>
     </row>
     <row r="31">
@@ -978,19 +978,19 @@
         <v>4.3131</v>
       </c>
       <c r="B31" t="n">
-        <v>4.416897614092286e-11</v>
+        <v>2.193709238958637e-11</v>
       </c>
       <c r="C31" t="n">
-        <v>1.597190249325701e-11</v>
+        <v>6.844325599606699e-12</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9678515399105886</v>
+        <v>4.668598847074984</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9868016822122684</v>
+        <v>0.5869641285832508</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1613085899850981</v>
+        <v>0.7780998078458307</v>
       </c>
     </row>
     <row r="32">
@@ -998,19 +998,19 @@
         <v>4.3151</v>
       </c>
       <c r="B32" t="n">
-        <v>4.393077876111788e-11</v>
+        <v>2.681943501005306e-12</v>
       </c>
       <c r="C32" t="n">
-        <v>1.568246879583086e-11</v>
+        <v>1.633905860098088e-12</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7682890883048497</v>
+        <v>5.13057477803413</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9928970920873312</v>
+        <v>0.4001535506071734</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1280481813841416</v>
+        <v>1.026114955606826</v>
       </c>
     </row>
     <row r="33">
@@ -1018,19 +1018,19 @@
         <v>4.3192</v>
       </c>
       <c r="B33" t="n">
-        <v>4.249412342727748e-11</v>
+        <v>1.339299962051e-11</v>
       </c>
       <c r="C33" t="n">
-        <v>1.482425759980607e-11</v>
+        <v>4.657757967860979e-12</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3984119259243512</v>
+        <v>6.150393544437154</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9988644743898699</v>
+        <v>0.4065556692557977</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06640198765405854</v>
+        <v>1.025065590739526</v>
       </c>
     </row>
     <row r="34">
@@ -1038,19 +1038,19 @@
         <v>4.3212</v>
       </c>
       <c r="B34" t="n">
-        <v>3.929848159004366e-11</v>
+        <v>1.982219589562189e-11</v>
       </c>
       <c r="C34" t="n">
-        <v>1.39785506965924e-11</v>
+        <v>6.241534279103562e-12</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7117428059418679</v>
+        <v>3.278569410187364</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9942341284501828</v>
+        <v>0.6571242592176876</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1186238009903113</v>
+        <v>0.6557138820374728</v>
       </c>
     </row>
     <row r="35">
@@ -1058,19 +1058,19 @@
         <v>4.323</v>
       </c>
       <c r="B35" t="n">
-        <v>3.998646553003439e-11</v>
+        <v>4.066393960752992e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>1.408868101517203e-11</v>
+        <v>3.187318021570036e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5600170264491023</v>
+        <v>27.92349683419759</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9970296595028553</v>
+        <v>3.767379302149874e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09333617107485039</v>
+        <v>5.584699366839518</v>
       </c>
     </row>
     <row r="36">
@@ -1078,19 +1078,19 @@
         <v>4.3252</v>
       </c>
       <c r="B36" t="n">
-        <v>3.219389123201688e-11</v>
+        <v>2.156380835868746e-12</v>
       </c>
       <c r="C36" t="n">
-        <v>1.167769246116398e-11</v>
+        <v>1.112665164910327e-12</v>
       </c>
       <c r="D36" t="n">
-        <v>1.015047119752397</v>
+        <v>31.0771360563139</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9850354708097857</v>
+        <v>2.450396361586203e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1691745199587328</v>
+        <v>5.179522676052317</v>
       </c>
     </row>
     <row r="37">
@@ -1098,19 +1098,19 @@
         <v>4.3271</v>
       </c>
       <c r="B37" t="n">
-        <v>2.384061880694268e-11</v>
+        <v>3.166420817726498e-11</v>
       </c>
       <c r="C37" t="n">
-        <v>8.478813065619303e-12</v>
+        <v>5.459137308362149e-12</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7092368448911908</v>
+        <v>8.156149193915194</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9942895513587201</v>
+        <v>0.1478373121956729</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1182061408151985</v>
+        <v>1.631229838783039</v>
       </c>
     </row>
     <row r="38">
@@ -1118,19 +1118,19 @@
         <v>4.3291</v>
       </c>
       <c r="B38" t="n">
-        <v>1.508810381423486e-11</v>
+        <v>3.155256301746058e-11</v>
       </c>
       <c r="C38" t="n">
-        <v>5.572477701506931e-12</v>
+        <v>3.690389287827246e-12</v>
       </c>
       <c r="D38" t="n">
-        <v>1.284225455417521</v>
+        <v>27.30678563568786</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9725203994026541</v>
+        <v>0.0001268443488759065</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2140375759029201</v>
+        <v>4.55113093928131</v>
       </c>
     </row>
     <row r="39">
@@ -1138,19 +1138,19 @@
         <v>4.3301</v>
       </c>
       <c r="B39" t="n">
-        <v>2.447095163992751e-11</v>
+        <v>5.854371909234813e-12</v>
       </c>
       <c r="C39" t="n">
-        <v>8.832910957544613e-12</v>
+        <v>1.780198671206658e-12</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9401084449685926</v>
+        <v>59.75634584905009</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9877810915175916</v>
+        <v>5.044322185778327e-11</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1566847408280988</v>
+        <v>9.959390974841682</v>
       </c>
     </row>
     <row r="40">
@@ -1158,19 +1158,19 @@
         <v>4.3312</v>
       </c>
       <c r="B40" t="n">
-        <v>1.240254363880127e-11</v>
+        <v>3.752744154304491e-11</v>
       </c>
       <c r="C40" t="n">
-        <v>4.449140545984872e-12</v>
+        <v>3.442754570250141e-12</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8445211494572373</v>
+        <v>14.51579383974633</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9908264525369247</v>
+        <v>0.02437623979327744</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1407535249095395</v>
+        <v>2.419298973291055</v>
       </c>
     </row>
     <row r="41">
@@ -1178,19 +1178,19 @@
         <v>4.3332</v>
       </c>
       <c r="B41" t="n">
-        <v>9.517993867588858e-12</v>
+        <v>3.019660060983387e-11</v>
       </c>
       <c r="C41" t="n">
-        <v>3.39927660962941e-12</v>
+        <v>2.454518930293976e-12</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7753527114843144</v>
+        <v>41.3022446290841</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9927183022834922</v>
+        <v>2.52457240866594e-07</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1292254519140524</v>
+        <v>6.883707438180683</v>
       </c>
     </row>
     <row r="42">
@@ -1198,19 +1198,19 @@
         <v>4.3352</v>
       </c>
       <c r="B42" t="n">
-        <v>4.838511885624236e-12</v>
+        <v>4.15222164982348e-11</v>
       </c>
       <c r="C42" t="n">
-        <v>1.911682694093233e-12</v>
+        <v>2.433249971847531e-12</v>
       </c>
       <c r="D42" t="n">
-        <v>2.20930976506419</v>
+        <v>28.0408100738583</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8994770667545799</v>
+        <v>9.231440057583347e-05</v>
       </c>
       <c r="F42" t="n">
-        <v>0.368218294177365</v>
+        <v>4.673468345643049</v>
       </c>
     </row>
     <row r="43">
@@ -1218,19 +1218,19 @@
         <v>4.34</v>
       </c>
       <c r="B43" t="n">
-        <v>8.706564414805199e-13</v>
+        <v>3.65579656743096e-11</v>
       </c>
       <c r="C43" t="n">
-        <v>5.090307866143697e-13</v>
+        <v>2.049292917462745e-12</v>
       </c>
       <c r="D43" t="n">
-        <v>5.689848009542326</v>
+        <v>85.92006227908028</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4588142393961906</v>
+        <v>2.128169410214847e-16</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9483080015903876</v>
+        <v>14.32001037984671</v>
       </c>
     </row>
     <row r="44">
@@ -1238,19 +1238,19 @@
         <v>4.3449</v>
       </c>
       <c r="B44" t="n">
-        <v>2.286598670930721e-12</v>
+        <v>3.905673576993148e-11</v>
       </c>
       <c r="C44" t="n">
-        <v>9.945877013879699e-13</v>
+        <v>2.314020092970058e-12</v>
       </c>
       <c r="D44" t="n">
-        <v>3.329791549413701</v>
+        <v>20.85915927617359</v>
       </c>
       <c r="E44" t="n">
-        <v>0.766459971139925</v>
+        <v>0.000861218609047748</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5549652582356168</v>
+        <v>4.171831855234718</v>
       </c>
     </row>
     <row r="45">
@@ -1258,19 +1258,19 @@
         <v>4.35</v>
       </c>
       <c r="B45" t="n">
-        <v>1.567666930111408e-12</v>
+        <v>5.316780043301228e-11</v>
       </c>
       <c r="C45" t="n">
-        <v>7.990402677956287e-13</v>
+        <v>2.308821261906669e-12</v>
       </c>
       <c r="D45" t="n">
-        <v>4.766186529941967</v>
+        <v>152.1121519009234</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5741320862419865</v>
+        <v>2.766449954951186e-30</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7943644216569945</v>
+        <v>25.35202531682056</v>
       </c>
     </row>
     <row r="46">
@@ -1278,19 +1278,19 @@
         <v>4.3701</v>
       </c>
       <c r="B46" t="n">
-        <v>4.432901406543166e-12</v>
+        <v>3.935524851365524e-11</v>
       </c>
       <c r="C46" t="n">
-        <v>1.563530314827387e-12</v>
+        <v>2.190183134762256e-12</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5770971811746693</v>
+        <v>111.966540400437</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9967699577965153</v>
+        <v>7.895381943474968e-22</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09618286352911155</v>
+        <v>18.66109006673949</v>
       </c>
     </row>
     <row r="47">
@@ -1298,19 +1298,19 @@
         <v>4.3901</v>
       </c>
       <c r="B47" t="n">
-        <v>3.687152222761392e-12</v>
+        <v>5.015993243803017e-11</v>
       </c>
       <c r="C47" t="n">
-        <v>1.540958930824159e-12</v>
+        <v>2.267238817679311e-12</v>
       </c>
       <c r="D47" t="n">
-        <v>2.890061431997972</v>
+        <v>75.23238074566873</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8225134480062539</v>
+        <v>3.437922541305417e-14</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4816769053329953</v>
+        <v>12.53873012427812</v>
       </c>
     </row>
     <row r="48">
@@ -1318,19 +1318,19 @@
         <v>4.41</v>
       </c>
       <c r="B48" t="n">
-        <v>6.660648468236821e-12</v>
+        <v>3.911841764561469e-11</v>
       </c>
       <c r="C48" t="n">
-        <v>2.587704867453295e-12</v>
+        <v>2.31756426325504e-12</v>
       </c>
       <c r="D48" t="n">
-        <v>1.990115219727157</v>
+        <v>124.0641416082731</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9206054545247473</v>
+        <v>2.280428186192523e-24</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3316858699545261</v>
+        <v>20.67735693471218</v>
       </c>
     </row>
     <row r="49">
@@ -1338,19 +1338,19 @@
         <v>4.4202</v>
       </c>
       <c r="B49" t="n">
-        <v>1.244284527963247e-11</v>
+        <v>3.2592946712251e-11</v>
       </c>
       <c r="C49" t="n">
-        <v>4.381713642919639e-12</v>
+        <v>2.530580520582533e-12</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5513679442577661</v>
+        <v>21.82769254981418</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9971560912772566</v>
+        <v>0.001301067287238886</v>
       </c>
       <c r="F49" t="n">
-        <v>0.09189465737629436</v>
+        <v>3.637948758302364</v>
       </c>
     </row>
     <row r="50">
@@ -1358,19 +1358,19 @@
         <v>4.4302</v>
       </c>
       <c r="B50" t="n">
-        <v>1.648861892867407e-11</v>
+        <v>5.396043361015424e-11</v>
       </c>
       <c r="C50" t="n">
-        <v>5.765538276343342e-12</v>
+        <v>3.136080198275457e-12</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4365986752563806</v>
+        <v>61.48147039004613</v>
       </c>
       <c r="E50" t="n">
-        <v>0.998526690062745</v>
+        <v>2.249588908064726e-11</v>
       </c>
       <c r="F50" t="n">
-        <v>0.07276644587606344</v>
+        <v>10.24691173167436</v>
       </c>
     </row>
     <row r="51">
@@ -1378,19 +1378,19 @@
         <v>4.44</v>
       </c>
       <c r="B51" t="n">
-        <v>2.575013462815949e-11</v>
+        <v>3.567151492170114e-11</v>
       </c>
       <c r="C51" t="n">
-        <v>8.910647578436478e-12</v>
+        <v>6.016296869855253e-12</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2643463426212303</v>
+        <v>9.289452454970739</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9996513654503965</v>
+        <v>0.09806108614431747</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04405772377020505</v>
+        <v>1.857890490994148</v>
       </c>
     </row>
     <row r="52">
@@ -1398,19 +1398,19 @@
         <v>4.4499</v>
       </c>
       <c r="B52" t="n">
-        <v>4.953617382976053e-11</v>
+        <v>1.47819426448802e-12</v>
       </c>
       <c r="C52" t="n">
-        <v>1.695485300573802e-11</v>
+        <v>8.663021072256418e-13</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07933639540235678</v>
+        <v>40.70115939792579</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9999899012356323</v>
+        <v>3.315862825650731e-07</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01322273256705946</v>
+        <v>6.783526566320965</v>
       </c>
     </row>
     <row r="53">
@@ -1418,3359 +1418,3255 @@
         <v>4.455</v>
       </c>
       <c r="B53" t="n">
-        <v>1.040322082821725e-10</v>
+        <v>1.1865962e-11</v>
       </c>
       <c r="C53" t="n">
-        <v>3.572069394861541e-11</v>
+        <v>1.06958336e-11</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1334316691632015</v>
+        <v>2.281557909058414e-32</v>
       </c>
       <c r="E53" t="n">
-        <v>0.999952919489956</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.02223861152720025</v>
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.4601</v>
+        <v>4.47</v>
       </c>
       <c r="B54" t="n">
-        <v>1.623510040224055e-10</v>
+        <v>6.7859395e-12</v>
       </c>
       <c r="C54" t="n">
-        <v>5.544227465659022e-11</v>
+        <v>6.1167632e-12</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04050802947502791</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.9999986360818658</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.006751338245837984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.47</v>
+        <v>4.478</v>
       </c>
       <c r="B55" t="n">
-        <v>1.796060906935518e-10</v>
+        <v>1.96451892e-11</v>
       </c>
       <c r="C55" t="n">
-        <v>6.152835263124657e-11</v>
+        <v>1.77079342e-11</v>
       </c>
       <c r="D55" t="n">
-        <v>0.09436539454429968</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.9999831015516153</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.01572756575738328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.478</v>
+        <v>4.4861</v>
       </c>
       <c r="B56" t="n">
-        <v>1.295411784617047e-10</v>
+        <v>1.871878260514557e-11</v>
       </c>
       <c r="C56" t="n">
-        <v>4.433142641811893e-11</v>
+        <v>7.919094980921559e-12</v>
       </c>
       <c r="D56" t="n">
-        <v>0.076674372812326</v>
+        <v>1.983288411549752</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9999908749714606</v>
+        <v>0.5758824927008526</v>
       </c>
       <c r="F56" t="n">
-        <v>0.01277906213538767</v>
+        <v>0.6610961371832506</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.4861</v>
+        <v>4.4882</v>
       </c>
       <c r="B57" t="n">
-        <v>6.553610616075013e-11</v>
+        <v>1.836219484382018e-12</v>
       </c>
       <c r="C57" t="n">
-        <v>2.239104808387737e-11</v>
+        <v>9.465166999709273e-13</v>
       </c>
       <c r="D57" t="n">
-        <v>0.04870701057307572</v>
+        <v>10.72230491663895</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9999976362280224</v>
+        <v>0.05717249040793651</v>
       </c>
       <c r="F57" t="n">
-        <v>0.008117835095512621</v>
+        <v>2.144460983327789</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.4882</v>
+        <v>4.4901</v>
       </c>
       <c r="B58" t="n">
-        <v>5.054375724964865e-11</v>
+        <v>4.54044212204075e-12</v>
       </c>
       <c r="C58" t="n">
-        <v>1.730579928009681e-11</v>
+        <v>2.254589385921083e-12</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0853317858407863</v>
+        <v>10.57665039609582</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9999874625575087</v>
+        <v>0.0317573708760195</v>
       </c>
       <c r="F58" t="n">
-        <v>0.01422196430679772</v>
+        <v>2.644162599023955</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.4901</v>
+        <v>4.4922</v>
       </c>
       <c r="B59" t="n">
-        <v>6.95195713285584e-11</v>
+        <v>2.714920936145548e-11</v>
       </c>
       <c r="C59" t="n">
-        <v>2.378953544183214e-11</v>
+        <v>4.365321510052126e-12</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07569180598041916</v>
+        <v>30.51830950604811</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9999912180723911</v>
+        <v>1.165864804375051e-05</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01261530099673653</v>
+        <v>6.103661901209621</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.4922</v>
+        <v>4.495</v>
       </c>
       <c r="B60" t="n">
-        <v>2.475114729155767e-11</v>
+        <v>2.957948580141659e-11</v>
       </c>
       <c r="C60" t="n">
-        <v>8.659634367914268e-12</v>
+        <v>2.950500606728695e-12</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4459583395538413</v>
+        <v>78.94456954745594</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9984353307290813</v>
+        <v>5.901399813754574e-15</v>
       </c>
       <c r="F60" t="n">
-        <v>0.07432638992564021</v>
+        <v>13.15742825790932</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.495</v>
+        <v>4.5</v>
       </c>
       <c r="B61" t="n">
-        <v>1.979799716525783e-11</v>
+        <v>5.171485205050542e-11</v>
       </c>
       <c r="C61" t="n">
-        <v>6.823111312364182e-12</v>
+        <v>3.074940650450552e-12</v>
       </c>
       <c r="D61" t="n">
-        <v>0.196053252952357</v>
+        <v>24.99968703333838</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9998541084032402</v>
+        <v>0.0003415001591909086</v>
       </c>
       <c r="F61" t="n">
-        <v>0.03267554215872617</v>
+        <v>4.166614505556396</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.5</v>
+        <v>4.5102</v>
       </c>
       <c r="B62" t="n">
-        <v>1.125653466106383e-11</v>
+        <v>7.055662405407319e-11</v>
       </c>
       <c r="C62" t="n">
-        <v>3.988824285915876e-12</v>
+        <v>2.83121892231026e-12</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6515980167299174</v>
+        <v>77.24582079871504</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9954766676976251</v>
+        <v>1.322581442187713e-14</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1085996694549862</v>
+        <v>12.87430346645251</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.5102</v>
+        <v>4.5122</v>
       </c>
       <c r="B63" t="n">
-        <v>4.24138921030978e-12</v>
+        <v>4.826745644022664e-11</v>
       </c>
       <c r="C63" t="n">
-        <v>1.863000212847933e-12</v>
+        <v>4.339033230611256e-12</v>
       </c>
       <c r="D63" t="n">
-        <v>3.432274401321048</v>
+        <v>19.20173321984276</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7529574025686865</v>
+        <v>0.003836161074155199</v>
       </c>
       <c r="F63" t="n">
-        <v>0.572045733553508</v>
+        <v>3.200288869973793</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.5122</v>
+        <v>4.5151</v>
       </c>
       <c r="B64" t="n">
-        <v>9.896427181811743e-12</v>
+        <v>3.306108258799151e-11</v>
       </c>
       <c r="C64" t="n">
-        <v>3.549601652449045e-12</v>
+        <v>7.342497144892841e-12</v>
       </c>
       <c r="D64" t="n">
-        <v>0.842224194479677</v>
+        <v>2.95624950987428</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9908934310598522</v>
+        <v>0.8143176243670197</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1403706990799462</v>
+        <v>0.4927082516457134</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.5151</v>
+        <v>4.5201</v>
       </c>
       <c r="B65" t="n">
-        <v>3.212169527169149e-11</v>
+        <v>9.22927319509529e-12</v>
       </c>
       <c r="C65" t="n">
-        <v>1.143075379264591e-11</v>
+        <v>3.553891826792291e-12</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7186567133893222</v>
+        <v>12.5951446116165</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9940795475530046</v>
+        <v>0.04993503524574286</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1197761188982204</v>
+        <v>2.09919076860275</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.5201</v>
+        <v>4.5252</v>
       </c>
       <c r="B66" t="n">
-        <v>5.448622307163105e-11</v>
+        <v>2.18501786153324e-11</v>
       </c>
       <c r="C66" t="n">
-        <v>1.917822397679199e-11</v>
+        <v>1.049059705529468e-11</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5438403058922605</v>
+        <v>0.7723475037046788</v>
       </c>
       <c r="E66" t="n">
-        <v>0.997263382652415</v>
+        <v>0.8560690601290476</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09064005098204342</v>
+        <v>0.2574491679015596</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.5252</v>
+        <v>4.5294</v>
       </c>
       <c r="B67" t="n">
-        <v>1.011256239045701e-10</v>
+        <v>5.457672577259683e-12</v>
       </c>
       <c r="C67" t="n">
-        <v>3.504741162025933e-11</v>
+        <v>2.865997701094682e-12</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2898806668449376</v>
+        <v>3.87488542383769</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9995446148418845</v>
+        <v>0.5675665049531735</v>
       </c>
       <c r="F67" t="n">
-        <v>0.04831344447415627</v>
+        <v>0.774977084767538</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.5294</v>
+        <v>4.5351</v>
       </c>
       <c r="B68" t="n">
-        <v>1.147956271059631e-10</v>
+        <v>1.477212495505953e-11</v>
       </c>
       <c r="C68" t="n">
-        <v>3.938741152626435e-11</v>
+        <v>9.72779057581836e-12</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1209239740759898</v>
+        <v>0.1555479317751856</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9999647927475208</v>
+        <v>0.6932889520344809</v>
       </c>
       <c r="F68" t="n">
-        <v>0.02015399567933164</v>
+        <v>0.1555479317751856</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.5351</v>
+        <v>4.58</v>
       </c>
       <c r="B69" t="n">
-        <v>1.692837360136454e-10</v>
+        <v>5.581440409999999e-11</v>
       </c>
       <c r="C69" t="n">
-        <v>5.864412023837271e-11</v>
+        <v>5.0310424e-11</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2827657362923344</v>
+        <v>1.649927266125326e-32</v>
       </c>
       <c r="E69" t="n">
-        <v>0.999576208917285</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.04712762271538907</v>
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.5402</v>
+        <v>4.5901</v>
       </c>
       <c r="B70" t="n">
-        <v>2.016809715103696e-10</v>
+        <v>8.200590368064942e-13</v>
       </c>
       <c r="C70" t="n">
-        <v>6.936948394358813e-11</v>
+        <v>5.168833757431846e-13</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1627339467934823</v>
+        <v>19.40407453543295</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9999155218353538</v>
+        <v>0.0006545234492531783</v>
       </c>
       <c r="F70" t="n">
-        <v>0.02712232446558038</v>
+        <v>4.851018633858238</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.5498</v>
+        <v>4.6003</v>
       </c>
       <c r="B71" t="n">
-        <v>3.027740457448497e-10</v>
+        <v>1.102917518483084e-11</v>
       </c>
       <c r="C71" t="n">
-        <v>1.034862407387193e-10</v>
+        <v>6.103992262907076e-12</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05541808284832449</v>
+        <v>2.068354177538267</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9999965270853979</v>
+        <v>0.5583414106086515</v>
       </c>
       <c r="F71" t="n">
-        <v>0.009236347141387416</v>
+        <v>0.6894513925127556</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.5602</v>
+        <v>4.61</v>
       </c>
       <c r="B72" t="n">
-        <v>4.610052342467255e-10</v>
+        <v>2.22685303141018e-11</v>
       </c>
       <c r="C72" t="n">
-        <v>1.573491500590098e-10</v>
+        <v>1.292883362263161e-11</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03151899705559803</v>
+        <v>1.414299211199761</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9999993553191671</v>
+        <v>0.4930475764699185</v>
       </c>
       <c r="F72" t="n">
-        <v>0.005253166175933004</v>
+        <v>0.7071496055998804</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.5701</v>
+        <v>4.6202</v>
       </c>
       <c r="B73" t="n">
-        <v>4.32064368022806e-10</v>
+        <v>5.576524487944684e-12</v>
       </c>
       <c r="C73" t="n">
-        <v>1.477477718570277e-10</v>
+        <v>4.535534158144701e-12</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06363408243608948</v>
+        <v>0.949821996818486</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9999947582910202</v>
+        <v>0.3297646106261894</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01060568040601491</v>
+        <v>0.949821996818486</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.58</v>
+        <v>4.6299</v>
       </c>
       <c r="B74" t="n">
-        <v>2.036744213388092e-10</v>
+        <v>1.404952421579407e-11</v>
       </c>
       <c r="C74" t="n">
-        <v>7.014227495602238e-11</v>
+        <v>7.369501820015486e-12</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1837207237290588</v>
+        <v>1.180545977420598</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9998793905232292</v>
+        <v>0.7576738710290714</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0306201206215098</v>
+        <v>0.393515325806866</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.5901</v>
+        <v>4.6352</v>
       </c>
       <c r="B75" t="n">
-        <v>1.059305024281634e-10</v>
+        <v>7.855583059533422e-13</v>
       </c>
       <c r="C75" t="n">
-        <v>3.619613938647378e-11</v>
+        <v>6.187812346949469e-13</v>
       </c>
       <c r="D75" t="n">
-        <v>0.05057801979885276</v>
+        <v>17.36621707489704</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9999973550815513</v>
+        <v>0.008027509112188408</v>
       </c>
       <c r="F75" t="n">
-        <v>0.008429669966475461</v>
+        <v>2.894369512482839</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.6003</v>
+        <v>4.64</v>
       </c>
       <c r="B76" t="n">
-        <v>8.249024334295031e-11</v>
+        <v>2.845819405430319e-11</v>
       </c>
       <c r="C76" t="n">
-        <v>2.842131711053915e-11</v>
+        <v>8.063179814520661e-12</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1914154432893843</v>
+        <v>7.787018732014807</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9998639837903787</v>
+        <v>0.2541258495916205</v>
       </c>
       <c r="F76" t="n">
-        <v>0.03190257388156405</v>
+        <v>1.297836455335801</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.61</v>
+        <v>4.65</v>
       </c>
       <c r="B77" t="n">
-        <v>2.013225660983892e-10</v>
+        <v>8.174250804227761e-11</v>
       </c>
       <c r="C77" t="n">
-        <v>6.897620732880735e-11</v>
+        <v>1.056664001222427e-11</v>
       </c>
       <c r="D77" t="n">
-        <v>0.09643023387440602</v>
+        <v>33.22677685097486</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9999819817447807</v>
+        <v>9.483105105366787e-06</v>
       </c>
       <c r="F77" t="n">
-        <v>0.01607170564573434</v>
+        <v>5.537796141829143</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.6202</v>
+        <v>4.6701</v>
       </c>
       <c r="B78" t="n">
-        <v>1.937113873925549e-10</v>
+        <v>1.3107944581479e-10</v>
       </c>
       <c r="C78" t="n">
-        <v>6.823194395349358e-11</v>
+        <v>8.267814546149892e-12</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5553888450202941</v>
+        <v>30.31133380259002</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9970977354667739</v>
+        <v>3.429714967052688e-05</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09256480750338235</v>
+        <v>5.051888967098337</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.6299</v>
+        <v>4.6802</v>
       </c>
       <c r="B79" t="n">
-        <v>1.550512554413386e-10</v>
+        <v>1.080147192750548e-10</v>
       </c>
       <c r="C79" t="n">
-        <v>5.453121357503599e-11</v>
+        <v>5.264419142591782e-12</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5307527682295331</v>
+        <v>54.43811047992612</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9974438939111429</v>
+        <v>6.018863420237174e-10</v>
       </c>
       <c r="F79" t="n">
-        <v>0.08845879470492218</v>
+        <v>9.073018413321021</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.6352</v>
+        <v>4.6899</v>
       </c>
       <c r="B80" t="n">
-        <v>9.187820807103147e-11</v>
+        <v>1.218470511554773e-10</v>
       </c>
       <c r="C80" t="n">
-        <v>3.153909287477083e-11</v>
+        <v>4.97340890199075e-12</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1289232925811666</v>
+        <v>95.29612004774054</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9999574606957058</v>
+        <v>2.39880521094109e-18</v>
       </c>
       <c r="F80" t="n">
-        <v>0.02148721543019444</v>
+        <v>15.88268667462342</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.64</v>
+        <v>4.71</v>
       </c>
       <c r="B81" t="n">
-        <v>5.717402909827075e-11</v>
+        <v>1.483776172618376e-10</v>
       </c>
       <c r="C81" t="n">
-        <v>1.971461578289352e-11</v>
+        <v>4.473342003594984e-12</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2049011461173287</v>
+        <v>95.18520229897695</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9998340001890373</v>
+        <v>2.529822948635016e-18</v>
       </c>
       <c r="F81" t="n">
-        <v>0.03415019101955479</v>
+        <v>15.86420038316282</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.65</v>
+        <v>4.73</v>
       </c>
       <c r="B82" t="n">
-        <v>5.431441135745475e-11</v>
+        <v>1.455535530408637e-10</v>
       </c>
       <c r="C82" t="n">
-        <v>1.872491042594041e-11</v>
+        <v>4.93402804505815e-12</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2016142156623141</v>
+        <v>72.4437219095163</v>
       </c>
       <c r="E82" t="n">
-        <v>0.999841667361103</v>
+        <v>1.28802764256233e-13</v>
       </c>
       <c r="F82" t="n">
-        <v>0.03360236927705235</v>
+        <v>12.07395365158605</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.6701</v>
+        <v>4.75</v>
       </c>
       <c r="B83" t="n">
-        <v>2.916004971523669e-11</v>
+        <v>1.696615198866433e-10</v>
       </c>
       <c r="C83" t="n">
-        <v>1.03781937739467e-11</v>
+        <v>6.307815727592578e-12</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7207330058841485</v>
+        <v>26.20620262421003</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9940326461640918</v>
+        <v>0.0002037852276231844</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1201221676473581</v>
+        <v>4.367700437368337</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.6802</v>
+        <v>4.7552</v>
       </c>
       <c r="B84" t="n">
-        <v>1.713775294046789e-11</v>
+        <v>1.078118695239343e-10</v>
       </c>
       <c r="C84" t="n">
-        <v>5.91292213448264e-12</v>
+        <v>7.866367876553748e-12</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2149175276891739</v>
+        <v>60.53954598769392</v>
       </c>
       <c r="E84" t="n">
-        <v>0.99980916092548</v>
+        <v>3.496777587419366e-11</v>
       </c>
       <c r="F84" t="n">
-        <v>0.03581958794819565</v>
+        <v>10.08992433128232</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.6899</v>
+        <v>4.7589</v>
       </c>
       <c r="B85" t="n">
-        <v>4.047297854427723e-12</v>
+        <v>1.429809749243278e-10</v>
       </c>
       <c r="C85" t="n">
-        <v>2.024331160171203e-12</v>
+        <v>8.855112273822742e-12</v>
       </c>
       <c r="D85" t="n">
-        <v>4.61808030045766</v>
+        <v>48.59456370398729</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5936429420813769</v>
+        <v>8.987116999968009e-09</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7696800500762767</v>
+        <v>8.099093950664548</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.71</v>
+        <v>4.77</v>
       </c>
       <c r="B86" t="n">
-        <v>1.251920391405709e-11</v>
+        <v>1.476521083244536e-10</v>
       </c>
       <c r="C86" t="n">
-        <v>4.33651319457155e-12</v>
+        <v>1.056036287499663e-11</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2810279540679563</v>
+        <v>5.989095790620072</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9995837051606614</v>
+        <v>0.4244126897990491</v>
       </c>
       <c r="F86" t="n">
-        <v>0.04683799234465938</v>
+        <v>0.9981826317700121</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.73</v>
+        <v>4.775</v>
       </c>
       <c r="B87" t="n">
-        <v>7.9008014368919e-12</v>
+        <v>2.464482278944272e-12</v>
       </c>
       <c r="C87" t="n">
-        <v>2.925429326378637e-12</v>
+        <v>1.23786641131725e-12</v>
       </c>
       <c r="D87" t="n">
-        <v>1.321429717874234</v>
+        <v>86.50726805586542</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9704629056858376</v>
+        <v>1.607959140272394e-16</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2202382863123723</v>
+        <v>14.4178780093109</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.75</v>
+        <v>4.7802</v>
       </c>
       <c r="B88" t="n">
-        <v>9.830541313806652e-12</v>
+        <v>2.103359011504538e-12</v>
       </c>
       <c r="C88" t="n">
-        <v>3.978022238727076e-12</v>
+        <v>1.194010816364368e-12</v>
       </c>
       <c r="D88" t="n">
-        <v>2.508489617173772</v>
+        <v>23.86955002093255</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8675163347253219</v>
+        <v>0.0005519107811837342</v>
       </c>
       <c r="F88" t="n">
-        <v>0.4180816028622953</v>
+        <v>3.978258336822092</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.7552</v>
+        <v>4.7901</v>
       </c>
       <c r="B89" t="n">
-        <v>2.937670997465956e-11</v>
+        <v>9.662243850946165e-11</v>
       </c>
       <c r="C89" t="n">
-        <v>1.039908609831154e-11</v>
+        <v>1.747210928998626e-11</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6351444061639469</v>
+        <v>8.941405412619041</v>
       </c>
       <c r="E89" t="n">
-        <v>0.995785247759484</v>
+        <v>0.1769003057525664</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1058574010273245</v>
+        <v>1.490234235436507</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.7589</v>
+        <v>4.7999</v>
       </c>
       <c r="B90" t="n">
-        <v>3.286273052959373e-11</v>
+        <v>1.274139990095387e-10</v>
       </c>
       <c r="C90" t="n">
-        <v>1.145442386514713e-11</v>
+        <v>1.593312750867601e-11</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3842293981760032</v>
+        <v>16.49669003425329</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9989760976907504</v>
+        <v>0.011322320539844</v>
       </c>
       <c r="F90" t="n">
-        <v>0.06403823302933387</v>
+        <v>2.749448339042214</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.77</v>
+        <v>4.81</v>
       </c>
       <c r="B91" t="n">
-        <v>4.130906410255665e-11</v>
+        <v>1.726188472158949e-10</v>
       </c>
       <c r="C91" t="n">
-        <v>1.438876018777809e-11</v>
+        <v>1.452425066304699e-11</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3731691716414536</v>
+        <v>8.665030902408937</v>
       </c>
       <c r="E91" t="n">
-        <v>0.999058136479116</v>
+        <v>0.1933112502136421</v>
       </c>
       <c r="F91" t="n">
-        <v>0.06219486194024227</v>
+        <v>1.444171817068156</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.775</v>
+        <v>4.8122</v>
       </c>
       <c r="B92" t="n">
-        <v>5.095420540430307e-11</v>
+        <v>1.700245730228105e-10</v>
       </c>
       <c r="C92" t="n">
-        <v>1.756142235403722e-11</v>
+        <v>9.72193967454499e-12</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1967687960769804</v>
+        <v>37.59994860761138</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9998525445433943</v>
+        <v>1.344870697152061e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0327947993461634</v>
+        <v>6.266658101268564</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.7802</v>
+        <v>4.8153</v>
       </c>
       <c r="B93" t="n">
-        <v>8.606749311194574e-11</v>
+        <v>1.860021484948273e-10</v>
       </c>
       <c r="C93" t="n">
-        <v>2.965113070158353e-11</v>
+        <v>7.893419583400822e-12</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1898825520009723</v>
+        <v>48.31998180806217</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9998671494442389</v>
+        <v>1.019825230147404e-08</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03164709200016206</v>
+        <v>8.053330301343696</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.7901</v>
+        <v>4.8201</v>
       </c>
       <c r="B94" t="n">
-        <v>1.069543452412129e-10</v>
+        <v>1.45970173312287e-10</v>
       </c>
       <c r="C94" t="n">
-        <v>3.685082706657765e-11</v>
+        <v>5.508152227113148e-12</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1916943603425621</v>
+        <v>47.31503775639147</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9998634025629923</v>
+        <v>1.619021327930854e-08</v>
       </c>
       <c r="F94" t="n">
-        <v>0.03194906005709369</v>
+        <v>7.885839626065245</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.7999</v>
+        <v>4.8299</v>
       </c>
       <c r="B95" t="n">
-        <v>1.012654792564925e-10</v>
+        <v>1.795937665676162e-10</v>
       </c>
       <c r="C95" t="n">
-        <v>3.484540435977355e-11</v>
+        <v>5.131830049317062e-12</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1697589702276858</v>
+        <v>82.53594504425723</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9999043535438693</v>
+        <v>1.068521119124414e-15</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02829316170461431</v>
+        <v>13.75599084070954</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.81</v>
+        <v>4.85</v>
       </c>
       <c r="B96" t="n">
-        <v>4.711943088674423e-11</v>
+        <v>2.011875372069299e-10</v>
       </c>
       <c r="C96" t="n">
-        <v>1.642370598654459e-11</v>
+        <v>5.25606560973616e-12</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3842870651196618</v>
+        <v>75.9954404211643</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9989756585409424</v>
+        <v>2.394052676209047e-14</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0640478441866103</v>
+        <v>12.66590673686072</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.8122</v>
+        <v>4.8663</v>
       </c>
       <c r="B97" t="n">
-        <v>2.590952094832487e-11</v>
+        <v>1.990510202064081e-10</v>
       </c>
       <c r="C97" t="n">
-        <v>9.258134353892516e-12</v>
+        <v>5.601009320808079e-12</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7834003024690349</v>
+        <v>46.53731756549081</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9925113824024488</v>
+        <v>2.313919264818876e-08</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1305667170781725</v>
+        <v>7.756219594248468</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.8153</v>
+        <v>4.8899</v>
       </c>
       <c r="B98" t="n">
-        <v>2.091649015097335e-11</v>
+        <v>2.170546873209879e-10</v>
       </c>
       <c r="C98" t="n">
-        <v>7.312456179161788e-12</v>
+        <v>5.879461921389013e-12</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4335429981716328</v>
+        <v>96.06435109988119</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9985557727169598</v>
+        <v>1.659602733539518e-18</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0722571663619388</v>
+        <v>16.01072518331353</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.8201</v>
+        <v>4.8999</v>
       </c>
       <c r="B99" t="n">
-        <v>1.368817945037796e-11</v>
+        <v>1.886278162747574e-10</v>
       </c>
       <c r="C99" t="n">
-        <v>4.8460522964684e-12</v>
+        <v>7.526956536755693e-12</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6369960052711499</v>
+        <v>50.79576990566217</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9957511821374653</v>
+        <v>3.255140667075838e-09</v>
       </c>
       <c r="F99" t="n">
-        <v>0.106166000878525</v>
+        <v>8.465961650943695</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.8299</v>
+        <v>4.9101</v>
       </c>
       <c r="B100" t="n">
-        <v>1.135542698219619e-11</v>
+        <v>2.052799855318479e-10</v>
       </c>
       <c r="C100" t="n">
-        <v>4.065066361723586e-12</v>
+        <v>8.128851841264034e-12</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8122040306750457</v>
+        <v>80.93270941256915</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9917424433869477</v>
+        <v>2.292448944721003e-15</v>
       </c>
       <c r="F100" t="n">
-        <v>0.135367338445841</v>
+        <v>13.48878490209486</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.85</v>
+        <v>4.92</v>
       </c>
       <c r="B101" t="n">
-        <v>1.171448339383194e-11</v>
+        <v>1.156086893261662e-10</v>
       </c>
       <c r="C101" t="n">
-        <v>4.200335830292503e-12</v>
+        <v>7.385625986994478e-12</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8371999372632887</v>
+        <v>169.9096298187568</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9910389340214563</v>
+        <v>4.700692853113952e-34</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1395333228772148</v>
+        <v>28.31827163645947</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.8663</v>
+        <v>4.9262</v>
       </c>
       <c r="B102" t="n">
-        <v>1.242141681597134e-11</v>
+        <v>1.522317242948061e-10</v>
       </c>
       <c r="C102" t="n">
-        <v>4.711149477302958e-12</v>
+        <v>7.158847931327627e-12</v>
       </c>
       <c r="D102" t="n">
-        <v>1.66372495345105</v>
+        <v>134.672747204049</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9478872648287048</v>
+        <v>1.332144585573402e-26</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2772874922418417</v>
+        <v>22.44545786734151</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.8899</v>
+        <v>4.9302</v>
       </c>
       <c r="B103" t="n">
-        <v>2.054325160624365e-11</v>
+        <v>1.649381441434114e-10</v>
       </c>
       <c r="C103" t="n">
-        <v>7.453433205448238e-12</v>
+        <v>8.997499170726074e-12</v>
       </c>
       <c r="D103" t="n">
-        <v>1.018672934796597</v>
+        <v>114.698592094654</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9848945420216301</v>
+        <v>2.111961381345074e-22</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1697788224660996</v>
+        <v>19.11643201577567</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.8999</v>
+        <v>4.9369</v>
       </c>
       <c r="B104" t="n">
-        <v>3.239742537097861e-11</v>
+        <v>1.823304841043164e-10</v>
       </c>
       <c r="C104" t="n">
-        <v>1.132460652363859e-11</v>
+        <v>8.523343672191178e-12</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4312125023390065</v>
+        <v>90.97517141866132</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9985777091499004</v>
+        <v>4.192148434988587e-18</v>
       </c>
       <c r="F104" t="n">
-        <v>0.07186875038983442</v>
+        <v>18.19503428373226</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.9101</v>
+        <v>4.9467</v>
       </c>
       <c r="B105" t="n">
-        <v>4.015773567544696e-11</v>
+        <v>1.753815174111439e-10</v>
       </c>
       <c r="C105" t="n">
-        <v>1.414229079598777e-11</v>
+        <v>8.711831212471209e-12</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5523428875928077</v>
+        <v>106.9981377324012</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9971420088932044</v>
+        <v>1.764621359309726e-21</v>
       </c>
       <c r="F105" t="n">
-        <v>0.09205714793213461</v>
+        <v>21.39962754648025</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.92</v>
+        <v>4.9503</v>
       </c>
       <c r="B106" t="n">
-        <v>6.000530640028682e-11</v>
+        <v>1.951023773552997e-10</v>
       </c>
       <c r="C106" t="n">
-        <v>2.074032307858381e-11</v>
+        <v>1.035165622859338e-11</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2449447415333311</v>
+        <v>50.88445803792633</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9997206206577403</v>
+        <v>9.133165451229636e-10</v>
       </c>
       <c r="F106" t="n">
-        <v>0.04082412358888852</v>
+        <v>10.17689160758527</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.9262</v>
+        <v>4.9568</v>
       </c>
       <c r="B107" t="n">
-        <v>6.312353577277816e-11</v>
+        <v>1.71546592234088e-10</v>
       </c>
       <c r="C107" t="n">
-        <v>2.232247772629551e-11</v>
+        <v>8.893852197977578e-12</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6189233491099665</v>
+        <v>97.08366370039302</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9960765828032887</v>
+        <v>2.174894001076429e-19</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1031538915183278</v>
+        <v>19.4167327400786</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.9302</v>
+        <v>4.9619</v>
       </c>
       <c r="B108" t="n">
-        <v>6.154283122938151e-11</v>
+        <v>1.967760158447713e-10</v>
       </c>
       <c r="C108" t="n">
-        <v>2.218013222389444e-11</v>
+        <v>9.842396698538303e-12</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9165200142838059</v>
+        <v>66.35357567736717</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9885798075460941</v>
+        <v>5.869524073810863e-13</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1527533357139677</v>
+        <v>13.27071513547343</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.9369</v>
+        <v>4.9647</v>
       </c>
       <c r="B109" t="n">
-        <v>7.604936425825405e-11</v>
+        <v>1.587369330532965e-10</v>
       </c>
       <c r="C109" t="n">
-        <v>2.682183619112715e-11</v>
+        <v>9.14847546067639e-12</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5761599754994885</v>
+        <v>93.9251640597538</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9967845558177856</v>
+        <v>1.005073254333257e-18</v>
       </c>
       <c r="F109" t="n">
-        <v>0.09602666258324809</v>
+        <v>18.78503281195076</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.9467</v>
+        <v>4.9679</v>
       </c>
       <c r="B110" t="n">
-        <v>8.989887542962052e-11</v>
+        <v>1.887686911656146e-10</v>
       </c>
       <c r="C110" t="n">
-        <v>3.169459231954653e-11</v>
+        <v>1.031999902914235e-11</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5701598976251965</v>
+        <v>40.65759535000169</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9968770533855809</v>
+        <v>1.100224644325874e-07</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09502664960419942</v>
+        <v>8.131519070000337</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.9503</v>
+        <v>4.97</v>
       </c>
       <c r="B111" t="n">
-        <v>9.342113535694351e-11</v>
+        <v>2.190457490711586e-10</v>
       </c>
       <c r="C111" t="n">
-        <v>3.300931660604424e-11</v>
+        <v>1.304764384614058e-11</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6056668008679409</v>
+        <v>80.60260246818355</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9963052907170711</v>
+        <v>6.277278344238308e-16</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1009444668113235</v>
+        <v>16.12052049363671</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.9568</v>
+        <v>4.9728</v>
       </c>
       <c r="B112" t="n">
-        <v>1.014908157548879e-10</v>
+        <v>1.513863945081349e-10</v>
       </c>
       <c r="C112" t="n">
-        <v>3.55846238798596e-11</v>
+        <v>7.556104537100119e-12</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4809246027347022</v>
+        <v>110.9583689555192</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9980629389775431</v>
+        <v>1.284042164267496e-21</v>
       </c>
       <c r="F112" t="n">
-        <v>0.08015410045578369</v>
+        <v>18.49306149258653</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.9619</v>
+        <v>4.9746</v>
       </c>
       <c r="B113" t="n">
-        <v>9.83737297680908e-11</v>
+        <v>1.751992356345256e-10</v>
       </c>
       <c r="C113" t="n">
-        <v>3.48258528042206e-11</v>
+        <v>1.023975727307312e-11</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6362690591806694</v>
+        <v>53.95333234983246</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9957645763411606</v>
+        <v>2.142625001823289e-10</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1060448431967782</v>
+        <v>10.79066646996649</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.9647</v>
+        <v>4.9847</v>
       </c>
       <c r="B114" t="n">
-        <v>1.043224338051549e-10</v>
+        <v>1.12204367025146e-12</v>
       </c>
       <c r="C114" t="n">
-        <v>3.644358957732479e-11</v>
+        <v>4.804459646536608e-13</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4210606642479547</v>
+        <v>533.1297566401822</v>
       </c>
       <c r="E114" t="n">
-        <v>0.998670819982188</v>
+        <v>6.111932623967037e-112</v>
       </c>
       <c r="F114" t="n">
-        <v>0.07017677737465912</v>
+        <v>88.85495944003037</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.9679</v>
+        <v>4.9901</v>
       </c>
       <c r="B115" t="n">
-        <v>1.038212686735539e-10</v>
+        <v>4.678027422724677e-11</v>
       </c>
       <c r="C115" t="n">
-        <v>3.625476415667894e-11</v>
+        <v>4.904696923477952e-12</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4148437865301498</v>
+        <v>342.4017711632501</v>
       </c>
       <c r="E115" t="n">
-        <v>0.998725894827927</v>
+        <v>6.598656267833026e-71</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0691406310883583</v>
+        <v>57.06696186054169</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.97</v>
+        <v>4.9947</v>
       </c>
       <c r="B116" t="n">
-        <v>1.034747789361219e-10</v>
+        <v>1.631810676466416e-10</v>
       </c>
       <c r="C116" t="n">
-        <v>3.667556751943648e-11</v>
+        <v>7.173525117841121e-12</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6553431583865298</v>
+        <v>96.63046563446051</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9954045733034641</v>
+        <v>1.264945208692945e-18</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1092238597310883</v>
+        <v>16.10507760574342</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.9728</v>
+        <v>5.0046</v>
       </c>
       <c r="B117" t="n">
-        <v>9.867486036380426e-11</v>
+        <v>1.891371122911518e-10</v>
       </c>
       <c r="C117" t="n">
-        <v>3.454470836221683e-11</v>
+        <v>6.440498929500528e-12</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4561395185637329</v>
+        <v>136.3756627932284</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9983320089290662</v>
+        <v>5.828022875636401e-27</v>
       </c>
       <c r="F117" t="n">
-        <v>0.07602325309395548</v>
+        <v>22.72927713220473</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9746</v>
+        <v>5.01</v>
       </c>
       <c r="B118" t="n">
-        <v>9.829970469361051e-11</v>
+        <v>2.076223572581234e-10</v>
       </c>
       <c r="C118" t="n">
-        <v>3.426826519301339e-11</v>
+        <v>8.921965252757917e-12</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3868937892185096</v>
+        <v>85.58363413444596</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9989556829921016</v>
+        <v>2.498804720764743e-16</v>
       </c>
       <c r="F118" t="n">
-        <v>0.06448229820308495</v>
+        <v>14.26393902240766</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.9847</v>
+        <v>5.0148</v>
       </c>
       <c r="B119" t="n">
-        <v>8.358134010198238e-11</v>
+        <v>2.107705254743591e-10</v>
       </c>
       <c r="C119" t="n">
-        <v>2.944280926001642e-11</v>
+        <v>7.955845946891302e-12</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5567740361811027</v>
+        <v>42.27596853903768</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9970774626036623</v>
+        <v>1.621890296848757e-07</v>
       </c>
       <c r="F119" t="n">
-        <v>0.09279567269685045</v>
+        <v>7.045994756506281</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.9901</v>
+        <v>5.0177</v>
       </c>
       <c r="B120" t="n">
-        <v>7.568517445724642e-11</v>
+        <v>1.926662821335157e-10</v>
       </c>
       <c r="C120" t="n">
-        <v>2.681279088773882e-11</v>
+        <v>8.067897475604166e-12</v>
       </c>
       <c r="D120" t="n">
-        <v>0.647599906233284</v>
+        <v>74.61275674195656</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9955528698755995</v>
+        <v>4.611622947883329e-14</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1079333177055473</v>
+        <v>12.43545945699276</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.9947</v>
+        <v>5.0179</v>
       </c>
       <c r="B121" t="n">
-        <v>6.622997784758356e-11</v>
+        <v>2.051476155660665e-10</v>
       </c>
       <c r="C121" t="n">
-        <v>2.336612665482017e-11</v>
+        <v>8.084650495747538e-12</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5813117377831123</v>
+        <v>53.51389754613048</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9967038086966002</v>
+        <v>9.244460531367642e-10</v>
       </c>
       <c r="F121" t="n">
-        <v>0.09688528963051872</v>
+        <v>8.918982924355079</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>5.0046</v>
+        <v>5.0198</v>
       </c>
       <c r="B122" t="n">
-        <v>5.452483516218071e-11</v>
+        <v>2.030679515849332e-10</v>
       </c>
       <c r="C122" t="n">
-        <v>1.918866255813337e-11</v>
+        <v>1.010123494217734e-11</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5411881864639744</v>
+        <v>62.75449570120799</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9973005781475438</v>
+        <v>1.238506692464321e-11</v>
       </c>
       <c r="F122" t="n">
-        <v>0.09019803107732906</v>
+        <v>10.459082616868</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.01</v>
+        <v>5.0248</v>
       </c>
       <c r="B123" t="n">
-        <v>4.9232342182047e-11</v>
+        <v>1.605653193555807e-10</v>
       </c>
       <c r="C123" t="n">
-        <v>1.755126503223268e-11</v>
+        <v>1.339857454195336e-11</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7470259909877262</v>
+        <v>22.84962873642047</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9934194138868749</v>
+        <v>0.0008484380517047016</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1245043318312877</v>
+        <v>3.808271456070079</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.0148</v>
+        <v>5.0278</v>
       </c>
       <c r="B124" t="n">
-        <v>5.346939995706335e-11</v>
+        <v>1.850114058097597e-10</v>
       </c>
       <c r="C124" t="n">
-        <v>1.881725149245254e-11</v>
+        <v>1.622922532172433e-11</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5412080445228442</v>
+        <v>7.181790671182708</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9973003008093486</v>
+        <v>0.3043621583994245</v>
       </c>
       <c r="F124" t="n">
-        <v>0.09020134075380737</v>
+        <v>1.196965111863785</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.0177</v>
+        <v>5.0301</v>
       </c>
       <c r="B125" t="n">
-        <v>5.268178788695017e-11</v>
+        <v>2.353973870478938e-10</v>
       </c>
       <c r="C125" t="n">
-        <v>1.820097692902843e-11</v>
+        <v>1.852009337379776e-11</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2375532851198048</v>
+        <v>20.43996306009566</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9997444537610187</v>
+        <v>0.002311579973570008</v>
       </c>
       <c r="F125" t="n">
-        <v>0.03959221418663413</v>
+        <v>3.406660510015944</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.0179</v>
+        <v>5.0328</v>
       </c>
       <c r="B126" t="n">
-        <v>4.924073534243805e-11</v>
+        <v>1.60892772724396e-10</v>
       </c>
       <c r="C126" t="n">
-        <v>1.741716551641971e-11</v>
+        <v>1.572093799146637e-11</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6226737728019821</v>
+        <v>19.08356204562477</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9960103523658109</v>
+        <v>0.004024812725643137</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1037789621336637</v>
+        <v>3.180593674270795</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.0198</v>
+        <v>5.0359</v>
       </c>
       <c r="B127" t="n">
-        <v>6.092848310066807e-11</v>
+        <v>1.948449952134188e-10</v>
       </c>
       <c r="C127" t="n">
-        <v>2.110647700906394e-11</v>
+        <v>1.754043769666918e-11</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2822339580450836</v>
+        <v>10.53083238544508</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9995785119656102</v>
+        <v>0.1040048005697963</v>
       </c>
       <c r="F127" t="n">
-        <v>0.04703899300751394</v>
+        <v>1.755138730907513</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.0248</v>
+        <v>5.0387</v>
       </c>
       <c r="B128" t="n">
-        <v>7.437734153714696e-11</v>
+        <v>1.708748384578675e-10</v>
       </c>
       <c r="C128" t="n">
-        <v>2.544579133679504e-11</v>
+        <v>1.648998818182033e-11</v>
       </c>
       <c r="D128" t="n">
-        <v>0.07161794321045419</v>
+        <v>23.16974845649662</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9999925497468607</v>
+        <v>0.0007415736891413616</v>
       </c>
       <c r="F128" t="n">
-        <v>0.01193632386840903</v>
+        <v>3.861624742749436</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.0278</v>
+        <v>5.042</v>
       </c>
       <c r="B129" t="n">
-        <v>8.067199046935134e-11</v>
+        <v>1.670992476342593e-10</v>
       </c>
       <c r="C129" t="n">
-        <v>2.783889369171769e-11</v>
+        <v>1.785440734511656e-11</v>
       </c>
       <c r="D129" t="n">
-        <v>0.2180472742492225</v>
+        <v>19.99699466390332</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9998009341092705</v>
+        <v>0.002772808817771293</v>
       </c>
       <c r="F129" t="n">
-        <v>0.03634121237487042</v>
+        <v>3.332832443983886</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.0301</v>
+        <v>5.0448</v>
       </c>
       <c r="B130" t="n">
-        <v>8.519645336849952e-11</v>
+        <v>1.822593753846927e-10</v>
       </c>
       <c r="C130" t="n">
-        <v>2.95493373238115e-11</v>
+        <v>1.70053215191706e-11</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3025806350977943</v>
+        <v>26.5307629128754</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9994845438903159</v>
+        <v>0.0001772489630184126</v>
       </c>
       <c r="F130" t="n">
-        <v>0.05043010584963239</v>
+        <v>4.421793818812567</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.0328</v>
+        <v>5.05</v>
       </c>
       <c r="B131" t="n">
-        <v>9.246148874923095e-11</v>
+        <v>2.001809681523887e-10</v>
       </c>
       <c r="C131" t="n">
-        <v>3.193841627310074e-11</v>
+        <v>1.779165510621037e-11</v>
       </c>
       <c r="D131" t="n">
-        <v>0.2344006593560637</v>
+        <v>15.32227359848745</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9997542048903926</v>
+        <v>0.01789293267145649</v>
       </c>
       <c r="F131" t="n">
-        <v>0.03906677655934396</v>
+        <v>2.553712266414574</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.0359</v>
+        <v>5.0548</v>
       </c>
       <c r="B132" t="n">
-        <v>1.021112137970975e-10</v>
+        <v>2.171137399739356e-10</v>
       </c>
       <c r="C132" t="n">
-        <v>3.515833748953595e-11</v>
+        <v>1.398519564695159e-11</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1802850003451816</v>
+        <v>3.619513614417676</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9998858849948957</v>
+        <v>0.6053858118493681</v>
       </c>
       <c r="F132" t="n">
-        <v>0.03004750005753027</v>
+        <v>0.7239027228835352</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.0387</v>
+        <v>5.0649</v>
       </c>
       <c r="B133" t="n">
-        <v>1.108291198766468e-10</v>
+        <v>2.160346422857749e-10</v>
       </c>
       <c r="C133" t="n">
-        <v>3.811143502779493e-11</v>
+        <v>1.128874532910427e-11</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1587577911134209</v>
+        <v>17.08604423106171</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9999214474877567</v>
+        <v>0.008972166940617182</v>
       </c>
       <c r="F133" t="n">
-        <v>0.02645963185223682</v>
+        <v>2.847674038510286</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.042</v>
+        <v>5.0699</v>
       </c>
       <c r="B134" t="n">
-        <v>1.108217882517464e-10</v>
+        <v>2.695743599858603e-10</v>
       </c>
       <c r="C134" t="n">
-        <v>3.829394683370808e-11</v>
+        <v>1.252433287893578e-11</v>
       </c>
       <c r="D134" t="n">
-        <v>0.2402837372141565</v>
+        <v>23.9497452948179</v>
       </c>
       <c r="E134" t="n">
-        <v>0.99973580931207</v>
+        <v>0.0005334911516858674</v>
       </c>
       <c r="F134" t="n">
-        <v>0.04004728953569275</v>
+        <v>3.991624215802984</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.0448</v>
+        <v>5.0745</v>
       </c>
       <c r="B135" t="n">
-        <v>9.652466296727841e-11</v>
+        <v>2.266866797126235e-10</v>
       </c>
       <c r="C135" t="n">
-        <v>3.315878797318765e-11</v>
+        <v>8.934487198696272e-12</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1415634663450808</v>
+        <v>9.334314059170525</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9999439470856299</v>
+        <v>0.155630998884383</v>
       </c>
       <c r="F135" t="n">
-        <v>0.02359391105751347</v>
+        <v>1.555719009861754</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.05</v>
+        <v>5.0842</v>
       </c>
       <c r="B136" t="n">
-        <v>8.825468449192913e-11</v>
+        <v>2.24055081022653e-10</v>
       </c>
       <c r="C136" t="n">
-        <v>3.057240180278076e-11</v>
+        <v>9.008623798920182e-12</v>
       </c>
       <c r="D136" t="n">
-        <v>0.282096155517041</v>
+        <v>35.42427251002692</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9995791074526374</v>
+        <v>3.56592554909787e-06</v>
       </c>
       <c r="F136" t="n">
-        <v>0.04701602591950684</v>
+        <v>5.90404541833782</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.0548</v>
+        <v>5.09</v>
       </c>
       <c r="B137" t="n">
-        <v>6.709570721559579e-11</v>
+        <v>2.4507876516816e-10</v>
       </c>
       <c r="C137" t="n">
-        <v>2.311407176349535e-11</v>
+        <v>1.014023570233581e-11</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1890916409938022</v>
+        <v>43.10497427717919</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9998687638802382</v>
+        <v>1.111951116608285e-07</v>
       </c>
       <c r="F137" t="n">
-        <v>0.03151527349896704</v>
+        <v>7.184162379529865</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.0649</v>
+        <v>5.0937</v>
       </c>
       <c r="B138" t="n">
-        <v>4.68450259354944e-11</v>
+        <v>2.312626469075026e-10</v>
       </c>
       <c r="C138" t="n">
-        <v>1.651917202975909e-11</v>
+        <v>1.743144507346443e-11</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5736374273864445</v>
+        <v>5.378028427835853</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9968236457384696</v>
+        <v>0.4963194353192369</v>
       </c>
       <c r="F138" t="n">
-        <v>0.09560623789774075</v>
+        <v>0.8963380713059755</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.0699</v>
+        <v>5.0968</v>
       </c>
       <c r="B139" t="n">
-        <v>4.342788559909539e-11</v>
+        <v>1.807434524569567e-10</v>
       </c>
       <c r="C139" t="n">
-        <v>1.508194669362437e-11</v>
+        <v>1.778353901189784e-11</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3240857955106654</v>
+        <v>4.604554806452143</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9993716903281735</v>
+        <v>0.5954349834618657</v>
       </c>
       <c r="F139" t="n">
-        <v>0.05401429925177757</v>
+        <v>0.7674258010753571</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.0745</v>
+        <v>5.0989</v>
       </c>
       <c r="B140" t="n">
-        <v>3.320767192079837e-11</v>
+        <v>1.723463706241772e-10</v>
       </c>
       <c r="C140" t="n">
-        <v>1.153273310711334e-11</v>
+        <v>2.086050204203343e-11</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3242803649274321</v>
+        <v>3.152553587001983</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9993706035526948</v>
+        <v>0.7894706250226121</v>
       </c>
       <c r="F140" t="n">
-        <v>0.05404672748790535</v>
+        <v>0.5254255978336638</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.0842</v>
+        <v>5.1</v>
       </c>
       <c r="B141" t="n">
-        <v>2.796144709973023e-11</v>
+        <v>1.366773633662441e-10</v>
       </c>
       <c r="C141" t="n">
-        <v>9.829229227662898e-12</v>
+        <v>2.334680746772221e-11</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5229283645849896</v>
+        <v>4.357456760885844</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9975481957003944</v>
+        <v>0.6284229392581953</v>
       </c>
       <c r="F141" t="n">
-        <v>0.08715472743083159</v>
+        <v>0.726242793480974</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.09</v>
+        <v>5.1004</v>
       </c>
       <c r="B142" t="n">
-        <v>2.789441916233485e-11</v>
+        <v>1.579108492029687e-10</v>
       </c>
       <c r="C142" t="n">
-        <v>9.751768274303713e-12</v>
+        <v>2.170268331146918e-11</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4332258974086009</v>
+        <v>2.747420633807009</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9985587699169571</v>
+        <v>0.8398146303128741</v>
       </c>
       <c r="F142" t="n">
-        <v>0.07220431623476682</v>
+        <v>0.4579034389678348</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.0937</v>
+        <v>5.1007</v>
       </c>
       <c r="B143" t="n">
-        <v>5.381491238064985e-11</v>
+        <v>1.81599712082254e-10</v>
       </c>
       <c r="C143" t="n">
-        <v>1.898504936830022e-11</v>
+        <v>2.349996217424787e-11</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5804598754586724</v>
+        <v>1.204009079617205</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9967172454158846</v>
+        <v>0.976686228506646</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0967433125764454</v>
+        <v>0.2006681799362008</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.0968</v>
+        <v>5.1029</v>
       </c>
       <c r="B144" t="n">
-        <v>1.049857552261342e-10</v>
+        <v>1.509741892924552e-10</v>
       </c>
       <c r="C144" t="n">
-        <v>3.639946218256185e-11</v>
+        <v>2.501880893519551e-11</v>
       </c>
       <c r="D144" t="n">
-        <v>0.2963904678898462</v>
+        <v>2.655845241842272</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9995144192189045</v>
+        <v>0.8506346121167203</v>
       </c>
       <c r="F144" t="n">
-        <v>0.04939841131497438</v>
+        <v>0.4426408736403786</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.0989</v>
+        <v>5.1049</v>
       </c>
       <c r="B145" t="n">
-        <v>1.182541960990667e-10</v>
+        <v>1.589606947448901e-10</v>
       </c>
       <c r="C145" t="n">
-        <v>4.057749973688825e-11</v>
+        <v>2.473499602644349e-11</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1223566471737907</v>
+        <v>8.381477616682451</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9999635460166152</v>
+        <v>0.2114658552360163</v>
       </c>
       <c r="F145" t="n">
-        <v>0.02039277452896512</v>
+        <v>1.396912936113742</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.1</v>
+        <v>5.1069</v>
       </c>
       <c r="B146" t="n">
-        <v>1.171825457942211e-10</v>
+        <v>1.252905679665189e-10</v>
       </c>
       <c r="C146" t="n">
-        <v>4.006062130576613e-11</v>
+        <v>2.484465940260761e-11</v>
       </c>
       <c r="D146" t="n">
-        <v>0.05899610078940271</v>
+        <v>8.518705311518499</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9999958156533515</v>
+        <v>0.2025092251309989</v>
       </c>
       <c r="F146" t="n">
-        <v>0.009832683464900452</v>
+        <v>1.419784218586416</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.1004</v>
+        <v>5.1088</v>
       </c>
       <c r="B147" t="n">
-        <v>1.197686287503917e-10</v>
+        <v>1.630512710166287e-10</v>
       </c>
       <c r="C147" t="n">
-        <v>4.121125565162411e-11</v>
+        <v>2.432998699811511e-11</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1693188319262396</v>
+        <v>6.409093883286798</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9999050799729253</v>
+        <v>0.3789555922744997</v>
       </c>
       <c r="F147" t="n">
-        <v>0.02821980532103993</v>
+        <v>1.068182313881133</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.1007</v>
+        <v>5.11</v>
       </c>
       <c r="B148" t="n">
-        <v>1.141334344028195e-10</v>
+        <v>1.669794245712572e-10</v>
       </c>
       <c r="C148" t="n">
-        <v>3.95328811319795e-11</v>
+        <v>2.636389200063265e-11</v>
       </c>
       <c r="D148" t="n">
-        <v>0.2803225460326806</v>
+        <v>1.772433232371931</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9995867235896752</v>
+        <v>0.9393934607506971</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0467204243387801</v>
+        <v>0.2954055387286551</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.1029</v>
+        <v>5.1108</v>
       </c>
       <c r="B149" t="n">
-        <v>1.436940170285557e-10</v>
+        <v>1.762070801865049e-10</v>
       </c>
       <c r="C149" t="n">
-        <v>4.948430401691741e-11</v>
+        <v>2.585729201546e-11</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1831546952026601</v>
+        <v>5.516672739437921</v>
       </c>
       <c r="E149" t="n">
-        <v>0.9998804766058503</v>
+        <v>0.4794438723624225</v>
       </c>
       <c r="F149" t="n">
-        <v>0.03052578253377668</v>
+        <v>0.9194454565729869</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.1049</v>
+        <v>5.1138</v>
       </c>
       <c r="B150" t="n">
-        <v>1.490606687313887e-10</v>
+        <v>1.323684119920517e-10</v>
       </c>
       <c r="C150" t="n">
-        <v>5.116305432838639e-11</v>
+        <v>2.264213799355765e-11</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1272315568782127</v>
+        <v>8.671076795485018</v>
       </c>
       <c r="E150" t="n">
-        <v>0.9999590875608876</v>
+        <v>0.192938910180123</v>
       </c>
       <c r="F150" t="n">
-        <v>0.02120525947970213</v>
+        <v>1.44517946591417</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.1069</v>
+        <v>5.1188</v>
       </c>
       <c r="B151" t="n">
-        <v>1.510283160838272e-10</v>
+        <v>1.24545882479752e-10</v>
       </c>
       <c r="C151" t="n">
-        <v>5.195312424395646e-11</v>
+        <v>1.479821017805957e-11</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1646702990150476</v>
+        <v>40.98002012641666</v>
       </c>
       <c r="E151" t="n">
-        <v>0.9999125334968841</v>
+        <v>2.922027624864628e-07</v>
       </c>
       <c r="F151" t="n">
-        <v>0.02744504983584127</v>
+        <v>6.830003354402777</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.1088</v>
+        <v>5.1238</v>
       </c>
       <c r="B152" t="n">
-        <v>1.584817210389559e-10</v>
+        <v>2.706327377556948e-10</v>
       </c>
       <c r="C152" t="n">
-        <v>5.443943680820925e-11</v>
+        <v>1.954902099456755e-11</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1405523419526951</v>
+        <v>4.79827949189974</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9999451188781611</v>
+        <v>0.569933519362769</v>
       </c>
       <c r="F152" t="n">
-        <v>0.02342539032544919</v>
+        <v>0.7997132486499566</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.11</v>
+        <v>5.1285</v>
       </c>
       <c r="B153" t="n">
-        <v>1.501838624289902e-10</v>
+        <v>3.152531952688524e-10</v>
       </c>
       <c r="C153" t="n">
-        <v>5.195858605822305e-11</v>
+        <v>1.529656930087276e-11</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2606648041492265</v>
+        <v>3.894126700702861</v>
       </c>
       <c r="E153" t="n">
-        <v>0.9996652710387156</v>
+        <v>0.6910014188325526</v>
       </c>
       <c r="F153" t="n">
-        <v>0.04344413402487109</v>
+        <v>0.6490211167838101</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.1108</v>
+        <v>5.1299</v>
       </c>
       <c r="B154" t="n">
-        <v>1.404402979767875e-10</v>
+        <v>2.899296163802495e-10</v>
       </c>
       <c r="C154" t="n">
-        <v>4.84619671872441e-11</v>
+        <v>1.778160462590025e-11</v>
       </c>
       <c r="D154" t="n">
-        <v>0.217277561899509</v>
+        <v>3.412437529008541</v>
       </c>
       <c r="E154" t="n">
-        <v>0.9998029782506719</v>
+        <v>0.7555806983035672</v>
       </c>
       <c r="F154" t="n">
-        <v>0.03621292698325151</v>
+        <v>0.5687395881680901</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.1138</v>
+        <v>5.1338</v>
       </c>
       <c r="B155" t="n">
-        <v>1.426560965471794e-10</v>
+        <v>3.01366412330902e-10</v>
       </c>
       <c r="C155" t="n">
-        <v>4.92567374342338e-11</v>
+        <v>1.390175263767364e-11</v>
       </c>
       <c r="D155" t="n">
-        <v>0.2275591090981071</v>
+        <v>33.22286228786329</v>
       </c>
       <c r="E155" t="n">
-        <v>0.9997745308398653</v>
+        <v>9.499579548039396e-06</v>
       </c>
       <c r="F155" t="n">
-        <v>0.03792651818301784</v>
+        <v>5.537143714643881</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.1188</v>
+        <v>5.1389</v>
       </c>
       <c r="B156" t="n">
-        <v>1.23933720279404e-10</v>
+        <v>3.068526106286949e-10</v>
       </c>
       <c r="C156" t="n">
-        <v>4.24612820107747e-11</v>
+        <v>1.561686377860131e-11</v>
       </c>
       <c r="D156" t="n">
-        <v>0.09630319181873644</v>
+        <v>5.438799911647124</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9999820520125087</v>
+        <v>0.4888842107511724</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0160505319697894</v>
+        <v>0.9064666519411874</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.1238</v>
+        <v>5.1417</v>
       </c>
       <c r="B157" t="n">
-        <v>1.005213493629306e-10</v>
+        <v>3.053342864904438e-10</v>
       </c>
       <c r="C157" t="n">
-        <v>3.469532162531252e-11</v>
+        <v>1.495634523953645e-11</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2212721535884761</v>
+        <v>10.81919320998259</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9997922204224301</v>
+        <v>0.09412782099169624</v>
       </c>
       <c r="F157" t="n">
-        <v>0.03687869226474602</v>
+        <v>1.803198868330432</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.1285</v>
+        <v>5.1447</v>
       </c>
       <c r="B158" t="n">
-        <v>7.228200626652138e-11</v>
+        <v>3.055377978896904e-10</v>
       </c>
       <c r="C158" t="n">
-        <v>2.501598693904202e-11</v>
+        <v>1.530740965459409e-11</v>
       </c>
       <c r="D158" t="n">
-        <v>0.2665643056446499</v>
+        <v>25.25210238970138</v>
       </c>
       <c r="E158" t="n">
-        <v>0.9996428113136959</v>
+        <v>0.0003066327048492145</v>
       </c>
       <c r="F158" t="n">
-        <v>0.04442738427410831</v>
+        <v>4.208683731616897</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.1299</v>
+        <v>5.148</v>
       </c>
       <c r="B159" t="n">
-        <v>7.999572808175468e-11</v>
+        <v>2.706265658744123e-10</v>
       </c>
       <c r="C159" t="n">
-        <v>2.742469785362601e-11</v>
+        <v>1.430834777459695e-11</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1069456610287811</v>
+        <v>108.7232799648632</v>
       </c>
       <c r="E159" t="n">
-        <v>0.999975517576472</v>
+        <v>3.771979311718973e-21</v>
       </c>
       <c r="F159" t="n">
-        <v>0.01782427683813018</v>
+        <v>18.12054666081053</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.1338</v>
+        <v>5.15</v>
       </c>
       <c r="B160" t="n">
-        <v>6.229286770010452e-11</v>
+        <v>3.59643249073227e-10</v>
       </c>
       <c r="C160" t="n">
-        <v>2.136397608021023e-11</v>
+        <v>1.838840314104448e-11</v>
       </c>
       <c r="D160" t="n">
-        <v>0.113553318529744</v>
+        <v>13.05054179840446</v>
       </c>
       <c r="E160" t="n">
-        <v>0.9999707657978933</v>
+        <v>0.04224032339849914</v>
       </c>
       <c r="F160" t="n">
-        <v>0.01892555308829067</v>
+        <v>2.175090299734076</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.1389</v>
+        <v>5.151</v>
       </c>
       <c r="B161" t="n">
-        <v>7.262011361581229e-11</v>
+        <v>3.232267776120922e-10</v>
       </c>
       <c r="C161" t="n">
-        <v>2.498776379967414e-11</v>
+        <v>1.451289896911115e-11</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1692292876303989</v>
+        <v>11.37963166653869</v>
       </c>
       <c r="E161" t="n">
-        <v>0.999905227319952</v>
+        <v>0.07732857311609397</v>
       </c>
       <c r="F161" t="n">
-        <v>0.02820488127173314</v>
+        <v>1.896605277756448</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.1417</v>
+        <v>5.157</v>
       </c>
       <c r="B162" t="n">
-        <v>6.607970076559684e-11</v>
+        <v>3.571713276405228e-10</v>
       </c>
       <c r="C162" t="n">
-        <v>2.279635268257012e-11</v>
+        <v>1.367624757591398e-11</v>
       </c>
       <c r="D162" t="n">
-        <v>0.2129449903407901</v>
+        <v>2.121999689952932</v>
       </c>
       <c r="E162" t="n">
-        <v>0.9998142308512409</v>
+        <v>0.908143148579543</v>
       </c>
       <c r="F162" t="n">
-        <v>0.03549083172346502</v>
+        <v>0.3536666149921554</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.1447</v>
+        <v>5.1594</v>
       </c>
       <c r="B163" t="n">
-        <v>6.173222023441619e-11</v>
+        <v>3.610019276159582e-10</v>
       </c>
       <c r="C163" t="n">
-        <v>2.135515429490599e-11</v>
+        <v>1.275236712638126e-11</v>
       </c>
       <c r="D163" t="n">
-        <v>0.2590010503468477</v>
+        <v>8.307866442152081</v>
       </c>
       <c r="E163" t="n">
-        <v>0.9996714360880752</v>
+        <v>0.2164046801473174</v>
       </c>
       <c r="F163" t="n">
-        <v>0.04316684172447461</v>
+        <v>1.384644407025347</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.148</v>
+        <v>5.17</v>
       </c>
       <c r="B164" t="n">
-        <v>6.680054997986668e-11</v>
+        <v>4.354391215601033e-10</v>
       </c>
       <c r="C164" t="n">
-        <v>2.320015951388076e-11</v>
+        <v>1.449725030451867e-11</v>
       </c>
       <c r="D164" t="n">
-        <v>0.3249340448471224</v>
+        <v>10.21486766844328</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9993669436122904</v>
+        <v>0.115890257960398</v>
       </c>
       <c r="F164" t="n">
-        <v>0.05415567414118707</v>
+        <v>1.702477944740546</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.15</v>
+        <v>5.1898</v>
       </c>
       <c r="B165" t="n">
-        <v>6.379430889933812e-11</v>
+        <v>4.413125799636043e-10</v>
       </c>
       <c r="C165" t="n">
-        <v>2.18623663568981e-11</v>
+        <v>1.178245558971434e-11</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1006809356298643</v>
+        <v>16.61507188310103</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9999795249842758</v>
+        <v>0.01080704388396116</v>
       </c>
       <c r="F165" t="n">
-        <v>0.01678015593831072</v>
+        <v>2.769178647183505</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.151</v>
+        <v>5.21</v>
       </c>
       <c r="B166" t="n">
-        <v>6.339138098672101e-11</v>
+        <v>4.223274550957516e-10</v>
       </c>
       <c r="C166" t="n">
-        <v>2.185052737896146e-11</v>
+        <v>1.20947838917271e-11</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1987867133361471</v>
+        <v>14.62896133558644</v>
       </c>
       <c r="E166" t="n">
-        <v>0.9998480757075312</v>
+        <v>0.02334742007282279</v>
       </c>
       <c r="F166" t="n">
-        <v>0.03313111888935785</v>
+        <v>2.43816022259774</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.157</v>
+        <v>5.23</v>
       </c>
       <c r="B167" t="n">
-        <v>5.664979969861684e-11</v>
+        <v>3.868139688293288e-10</v>
       </c>
       <c r="C167" t="n">
-        <v>1.942660539988929e-11</v>
+        <v>1.524762682514018e-11</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1117827271543789</v>
+        <v>20.18656672241865</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9999720936267507</v>
+        <v>0.002565356869376575</v>
       </c>
       <c r="F167" t="n">
-        <v>0.01863045452572982</v>
+        <v>3.364427787069776</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.1594</v>
+        <v>5.2395</v>
       </c>
       <c r="B168" t="n">
-        <v>5.325503336661759e-11</v>
+        <v>3.734357894765336e-10</v>
       </c>
       <c r="C168" t="n">
-        <v>1.855117209224244e-11</v>
+        <v>1.392434242267459e-11</v>
       </c>
       <c r="D168" t="n">
-        <v>0.3744092895281748</v>
+        <v>16.04253654594935</v>
       </c>
       <c r="E168" t="n">
-        <v>0.9990491533112703</v>
+        <v>0.01352746880327299</v>
       </c>
       <c r="F168" t="n">
-        <v>0.06240154825469579</v>
+        <v>2.673756090991558</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.17</v>
+        <v>5.2431</v>
       </c>
       <c r="B169" t="n">
-        <v>3.229102281057171e-11</v>
+        <v>4.072761194580967e-10</v>
       </c>
       <c r="C169" t="n">
-        <v>1.138621821431783e-11</v>
+        <v>1.978690787644888e-11</v>
       </c>
       <c r="D169" t="n">
-        <v>0.572634080282505</v>
+        <v>2.821940999342676</v>
       </c>
       <c r="E169" t="n">
-        <v>0.9968391122164184</v>
+        <v>0.8308403640478358</v>
       </c>
       <c r="F169" t="n">
-        <v>0.09543901338041749</v>
+        <v>0.470323499890446</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.1898</v>
+        <v>5.2501</v>
       </c>
       <c r="B170" t="n">
-        <v>2.674046717048222e-11</v>
+        <v>3.77168208360379e-10</v>
       </c>
       <c r="C170" t="n">
-        <v>9.345636220815341e-12</v>
+        <v>2.454186913745045e-11</v>
       </c>
       <c r="D170" t="n">
-        <v>0.4284704462947246</v>
+        <v>7.804163025168797</v>
       </c>
       <c r="E170" t="n">
-        <v>0.998603249977299</v>
+        <v>0.2528048375744104</v>
       </c>
       <c r="F170" t="n">
-        <v>0.07141174104912078</v>
+        <v>1.300693837528133</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.21</v>
+        <v>5.2599</v>
       </c>
       <c r="B171" t="n">
-        <v>2.61544835072318e-11</v>
+        <v>2.437885739558524e-10</v>
       </c>
       <c r="C171" t="n">
-        <v>9.254826178890206e-12</v>
+        <v>2.376241171381683e-11</v>
       </c>
       <c r="D171" t="n">
-        <v>0.6288980755565705</v>
+        <v>50.34816889566842</v>
       </c>
       <c r="E171" t="n">
-        <v>0.9958989392974287</v>
+        <v>4.00295315757596e-09</v>
       </c>
       <c r="F171" t="n">
-        <v>0.1048163459260951</v>
+        <v>8.391361482611403</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.23</v>
+        <v>5.265</v>
       </c>
       <c r="B172" t="n">
-        <v>2.879844771772615e-11</v>
+        <v>3.598290805830489e-10</v>
       </c>
       <c r="C172" t="n">
-        <v>9.96820307569446e-12</v>
+        <v>3.394375849550818e-11</v>
       </c>
       <c r="D172" t="n">
-        <v>0.268884480378881</v>
+        <v>7.554930672785048</v>
       </c>
       <c r="E172" t="n">
-        <v>0.9996337196576497</v>
+        <v>0.2725558603418192</v>
       </c>
       <c r="F172" t="n">
-        <v>0.04481408006314683</v>
+        <v>1.259155112130841</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.2395</v>
+        <v>5.27</v>
       </c>
       <c r="B173" t="n">
-        <v>4.347259074684258e-11</v>
+        <v>3.402610092109747e-10</v>
       </c>
       <c r="C173" t="n">
-        <v>1.502522629157846e-11</v>
+        <v>3.514243029792173e-11</v>
       </c>
       <c r="D173" t="n">
-        <v>0.2441598563721191</v>
+        <v>10.40528230291723</v>
       </c>
       <c r="E173" t="n">
-        <v>0.9997232167855118</v>
+        <v>0.1085898228809945</v>
       </c>
       <c r="F173" t="n">
-        <v>0.04069330939535318</v>
+        <v>1.734213717152871</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.2431</v>
+        <v>5.275</v>
       </c>
       <c r="B174" t="n">
-        <v>4.459767939650011e-11</v>
+        <v>1.974884273877256e-10</v>
       </c>
       <c r="C174" t="n">
-        <v>1.56473333580312e-11</v>
+        <v>1.912953721756499e-11</v>
       </c>
       <c r="D174" t="n">
-        <v>0.4918721252890575</v>
+        <v>48.98073662332393</v>
       </c>
       <c r="E174" t="n">
-        <v>0.9979360073137894</v>
+        <v>4.454919998418374e-06</v>
       </c>
       <c r="F174" t="n">
-        <v>0.08197868754817626</v>
+        <v>3.767748971024918</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.2501</v>
+        <v>5.2798</v>
       </c>
       <c r="B175" t="n">
-        <v>5.375069840289077e-11</v>
+        <v>3.462305989683147e-10</v>
       </c>
       <c r="C175" t="n">
-        <v>1.901541780672394e-11</v>
+        <v>4.745345205954441e-11</v>
       </c>
       <c r="D175" t="n">
-        <v>0.6252061747062229</v>
+        <v>5.932662280068767</v>
       </c>
       <c r="E175" t="n">
-        <v>0.995965248716814</v>
+        <v>0.4307754796704477</v>
       </c>
       <c r="F175" t="n">
-        <v>0.1042010291177038</v>
+        <v>0.9887770466781278</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.2599</v>
+        <v>5.285</v>
       </c>
       <c r="B176" t="n">
-        <v>8.338365029327191e-11</v>
+        <v>2.592599690351958e-10</v>
       </c>
       <c r="C176" t="n">
-        <v>2.871383900353635e-11</v>
+        <v>5.873083228343288e-11</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1824392888350551</v>
+        <v>4.327242263932555</v>
       </c>
       <c r="E176" t="n">
-        <v>0.9998818401760508</v>
+        <v>0.503324943314591</v>
       </c>
       <c r="F176" t="n">
-        <v>0.03040654813917585</v>
+        <v>0.8654484527865109</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.265</v>
+        <v>5.2902</v>
       </c>
       <c r="B177" t="n">
-        <v>1.098452324169197e-10</v>
+        <v>2.479682840286803e-10</v>
       </c>
       <c r="C177" t="n">
-        <v>3.78150063318523e-11</v>
+        <v>4.949077262841954e-11</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1774905486060722</v>
+        <v>6.21640425633792</v>
       </c>
       <c r="E177" t="n">
-        <v>0.9998909959286685</v>
+        <v>0.3993902883039121</v>
       </c>
       <c r="F177" t="n">
-        <v>0.02958175810101204</v>
+        <v>1.03606737605632</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.27</v>
+        <v>5.2929</v>
       </c>
       <c r="B178" t="n">
-        <v>1.206052349664008e-10</v>
+        <v>6.705205699854179e-11</v>
       </c>
       <c r="C178" t="n">
-        <v>4.169198066555556e-11</v>
+        <v>2.204817480148e-11</v>
       </c>
       <c r="D178" t="n">
-        <v>0.2472768792697512</v>
+        <v>14.21813311389768</v>
       </c>
       <c r="E178" t="n">
-        <v>0.9997128141681352</v>
+        <v>0.02729217713642209</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0412128132116252</v>
+        <v>2.36968885231628</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.275</v>
+        <v>5.2977</v>
       </c>
       <c r="B179" t="n">
-        <v>1.472815979369318e-10</v>
+        <v>9.306044845573736e-11</v>
       </c>
       <c r="C179" t="n">
-        <v>3.614399587376192e-11</v>
+        <v>2.493907639673043e-11</v>
       </c>
       <c r="D179" t="n">
-        <v>0.6263134222684005</v>
+        <v>17.05493940726756</v>
       </c>
       <c r="E179" t="n">
-        <v>0.999999784848681</v>
+        <v>0.009083440524508872</v>
       </c>
       <c r="F179" t="n">
-        <v>0.04817795555910773</v>
+        <v>2.842489901211259</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.2798</v>
+        <v>5.2997</v>
       </c>
       <c r="B180" t="n">
-        <v>2.065132254619542e-10</v>
+        <v>1.020452907651334e-10</v>
       </c>
       <c r="C180" t="n">
-        <v>7.149289215441644e-11</v>
+        <v>3.064691218246503e-11</v>
       </c>
       <c r="D180" t="n">
-        <v>0.2714670184582209</v>
+        <v>3.972328308202038</v>
       </c>
       <c r="E180" t="n">
-        <v>0.9996234263724573</v>
+        <v>0.6804213124819239</v>
       </c>
       <c r="F180" t="n">
-        <v>0.04524450307637014</v>
+        <v>0.662054718033673</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.285</v>
+        <v>5.3024</v>
       </c>
       <c r="B181" t="n">
-        <v>2.346399671057207e-10</v>
+        <v>1.096931411488699e-10</v>
       </c>
       <c r="C181" t="n">
-        <v>8.058708875339335e-11</v>
+        <v>2.744545876382065e-11</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1377822092197883</v>
+        <v>19.64992723684266</v>
       </c>
       <c r="E181" t="n">
-        <v>0.9999482467390924</v>
+        <v>0.003195846473087864</v>
       </c>
       <c r="F181" t="n">
-        <v>0.02296370153663138</v>
+        <v>3.27498787280711</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.2902</v>
+        <v>5.3082</v>
       </c>
       <c r="B182" t="n">
-        <v>3.103249678179068e-10</v>
+        <v>1.994893214678671e-10</v>
       </c>
       <c r="C182" t="n">
-        <v>1.066431101925546e-10</v>
+        <v>3.275858767600393e-11</v>
       </c>
       <c r="D182" t="n">
-        <v>0.1476384134006563</v>
+        <v>10.04546925326418</v>
       </c>
       <c r="E182" t="n">
-        <v>0.9999365609061743</v>
+        <v>0.1227502242086101</v>
       </c>
       <c r="F182" t="n">
-        <v>0.02460640223344272</v>
+        <v>1.674244875544029</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.2929</v>
+        <v>5.3129</v>
       </c>
       <c r="B183" t="n">
-        <v>3.545402500005559e-10</v>
+        <v>2.369111190940772e-10</v>
       </c>
       <c r="C183" t="n">
-        <v>1.219517588135596e-10</v>
+        <v>3.155296499068254e-11</v>
       </c>
       <c r="D183" t="n">
-        <v>0.1634728054154635</v>
+        <v>10.16734903358885</v>
       </c>
       <c r="E183" t="n">
-        <v>0.9999143895642079</v>
+        <v>0.1177792004393477</v>
       </c>
       <c r="F183" t="n">
-        <v>0.02724546756924391</v>
+        <v>1.694558172264808</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.2977</v>
+        <v>5.3175</v>
       </c>
       <c r="B184" t="n">
-        <v>3.455718549450839e-10</v>
+        <v>1.920674598239148e-10</v>
       </c>
       <c r="C184" t="n">
-        <v>1.188392253502392e-10</v>
+        <v>2.949297357805281e-11</v>
       </c>
       <c r="D184" t="n">
-        <v>0.1595378489305291</v>
+        <v>2.032010709642975</v>
       </c>
       <c r="E184" t="n">
-        <v>0.9999203071055753</v>
+        <v>0.9167311485791456</v>
       </c>
       <c r="F184" t="n">
-        <v>0.02658964148842151</v>
+        <v>0.3386684516071625</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.2997</v>
+        <v>5.3228</v>
       </c>
       <c r="B185" t="n">
-        <v>3.449191811293549e-10</v>
+        <v>2.62647085406501e-10</v>
       </c>
       <c r="C185" t="n">
-        <v>1.184906351917061e-10</v>
+        <v>2.630768153083711e-11</v>
       </c>
       <c r="D185" t="n">
-        <v>0.1418104171456593</v>
+        <v>2.368745810036388</v>
       </c>
       <c r="E185" t="n">
-        <v>0.9999436584278452</v>
+        <v>0.8828582049798446</v>
       </c>
       <c r="F185" t="n">
-        <v>0.02363506952427656</v>
+        <v>0.394790968339398</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.3024</v>
+        <v>5.3277</v>
       </c>
       <c r="B186" t="n">
-        <v>3.200027724371859e-10</v>
+        <v>2.74849065768248e-10</v>
       </c>
       <c r="C186" t="n">
-        <v>1.098055290841317e-10</v>
+        <v>2.500673026704359e-11</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1224248979339067</v>
+        <v>7.062563631358727</v>
       </c>
       <c r="E186" t="n">
-        <v>0.9999634859119678</v>
+        <v>0.3151001094398105</v>
       </c>
       <c r="F186" t="n">
-        <v>0.02040414965565112</v>
+        <v>1.177093938559788</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.3082</v>
+        <v>5.3329</v>
       </c>
       <c r="B187" t="n">
-        <v>2.877085419707903e-10</v>
+        <v>2.677463144048833e-10</v>
       </c>
       <c r="C187" t="n">
-        <v>9.939301086457303e-11</v>
+        <v>1.588628932042725e-11</v>
       </c>
       <c r="D187" t="n">
-        <v>0.2363531980929213</v>
+        <v>21.99058861053598</v>
       </c>
       <c r="E187" t="n">
-        <v>0.9997481945657547</v>
+        <v>0.05550777056884632</v>
       </c>
       <c r="F187" t="n">
-        <v>0.03939219968215354</v>
+        <v>1.691583739271999</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.3129</v>
+        <v>5.3375</v>
       </c>
       <c r="B188" t="n">
-        <v>2.723491138092733e-10</v>
+        <v>3.111866132583825e-10</v>
       </c>
       <c r="C188" t="n">
-        <v>9.363546798205719e-11</v>
+        <v>1.891263264551912e-11</v>
       </c>
       <c r="D188" t="n">
-        <v>0.1553690403326901</v>
+        <v>6.329494810217035</v>
       </c>
       <c r="E188" t="n">
-        <v>0.9999262778320773</v>
+        <v>0.3873095887240519</v>
       </c>
       <c r="F188" t="n">
-        <v>0.02589484005544835</v>
+        <v>1.054915801702839</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.3175</v>
+        <v>5.3427</v>
       </c>
       <c r="B189" t="n">
-        <v>2.366183288922749e-10</v>
+        <v>3.213112702898885e-10</v>
       </c>
       <c r="C189" t="n">
-        <v>8.13346192551137e-11</v>
+        <v>1.77990381154267e-11</v>
       </c>
       <c r="D189" t="n">
-        <v>0.1519646736612137</v>
+        <v>9.189699904935317</v>
       </c>
       <c r="E189" t="n">
-        <v>0.9999309307299068</v>
+        <v>0.1631871994701043</v>
       </c>
       <c r="F189" t="n">
-        <v>0.02532744561020228</v>
+        <v>1.531616650822553</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.3228</v>
+        <v>5.3429</v>
       </c>
       <c r="B190" t="n">
-        <v>1.931905626439133e-10</v>
+        <v>3.202543404819171e-10</v>
       </c>
       <c r="C190" t="n">
-        <v>6.654744678345833e-11</v>
+        <v>1.624445976984266e-11</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1876855680029199</v>
+        <v>8.083692039606401</v>
       </c>
       <c r="E190" t="n">
-        <v>0.9998716023921495</v>
+        <v>0.232035731509297</v>
       </c>
       <c r="F190" t="n">
-        <v>0.03128092800048664</v>
+        <v>1.347282006601067</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.3277</v>
+        <v>5.3469</v>
       </c>
       <c r="B191" t="n">
-        <v>1.721925476010033e-10</v>
+        <v>3.132550241112023e-10</v>
       </c>
       <c r="C191" t="n">
-        <v>5.921061111176692e-11</v>
+        <v>1.499391150040585e-11</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1581258975317991</v>
+        <v>2.428083527392686</v>
       </c>
       <c r="E191" t="n">
-        <v>0.9999223634108657</v>
+        <v>0.8764278459908591</v>
       </c>
       <c r="F191" t="n">
-        <v>0.02635431625529986</v>
+        <v>0.404680587898781</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.3329</v>
+        <v>5.3483</v>
       </c>
       <c r="B192" t="n">
-        <v>1.394869122301077e-10</v>
+        <v>3.36126698048413e-10</v>
       </c>
       <c r="C192" t="n">
-        <v>3.397829783154497e-11</v>
+        <v>1.386266678598288e-11</v>
       </c>
       <c r="D192" t="n">
-        <v>0.3782945649266157</v>
+        <v>11.35060735918264</v>
       </c>
       <c r="E192" t="n">
-        <v>0.9999999909638869</v>
+        <v>0.0781263600421757</v>
       </c>
       <c r="F192" t="n">
-        <v>0.02909958191743197</v>
+        <v>1.891767893197106</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.3375</v>
+        <v>5.3486</v>
       </c>
       <c r="B193" t="n">
-        <v>1.05857441666031e-10</v>
+        <v>3.233116403309689e-10</v>
       </c>
       <c r="C193" t="n">
-        <v>3.647883417153669e-11</v>
+        <v>1.306013719981636e-11</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1944385345621084</v>
+        <v>1.406754917204913</v>
       </c>
       <c r="E193" t="n">
-        <v>0.9998575977611929</v>
+        <v>0.9654462145662118</v>
       </c>
       <c r="F193" t="n">
-        <v>0.03240642242701807</v>
+        <v>0.2344591528674855</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.3427</v>
+        <v>5.3521</v>
       </c>
       <c r="B194" t="n">
-        <v>7.367781787062027e-11</v>
+        <v>3.057037291523169e-10</v>
       </c>
       <c r="C194" t="n">
-        <v>2.564652094694282e-11</v>
+        <v>1.905604069172936e-11</v>
       </c>
       <c r="D194" t="n">
-        <v>0.3622944385614147</v>
+        <v>6.291180442237152</v>
       </c>
       <c r="E194" t="n">
-        <v>0.9991346132618842</v>
+        <v>0.3913747148689518</v>
       </c>
       <c r="F194" t="n">
-        <v>0.06038240642690246</v>
+        <v>1.048530073706192</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.3429</v>
+        <v>5.3536</v>
       </c>
       <c r="B195" t="n">
-        <v>7.810692933890004e-11</v>
+        <v>3.409382848202306e-10</v>
       </c>
       <c r="C195" t="n">
-        <v>2.697628030927813e-11</v>
+        <v>1.280044094018593e-11</v>
       </c>
       <c r="D195" t="n">
-        <v>0.2320848171335567</v>
+        <v>5.551431284159375</v>
       </c>
       <c r="E195" t="n">
-        <v>0.9997612123401178</v>
+        <v>0.475262460547257</v>
       </c>
       <c r="F195" t="n">
-        <v>0.03868080285559278</v>
+        <v>0.9252385473598959</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.3469</v>
+        <v>5.3579</v>
       </c>
       <c r="B196" t="n">
-        <v>6.209472464786188e-11</v>
+        <v>2.990197088025654e-10</v>
       </c>
       <c r="C196" t="n">
-        <v>2.155091798185498e-11</v>
+        <v>2.047363173949693e-11</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3134776358711981</v>
+        <v>9.544070544946342</v>
       </c>
       <c r="E196" t="n">
-        <v>0.999429143248788</v>
+        <v>0.1452121741866311</v>
       </c>
       <c r="F196" t="n">
-        <v>0.05224627264519968</v>
+        <v>1.590678424157724</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.3483</v>
+        <v>5.3598</v>
       </c>
       <c r="B197" t="n">
-        <v>6.148355650181685e-11</v>
+        <v>3.186735263303243e-10</v>
       </c>
       <c r="C197" t="n">
-        <v>2.125923971217848e-11</v>
+        <v>1.983823756432316e-11</v>
       </c>
       <c r="D197" t="n">
-        <v>0.2512212925312088</v>
+        <v>5.352099396465979</v>
       </c>
       <c r="E197" t="n">
-        <v>0.9996992930471246</v>
+        <v>0.4995095524987204</v>
       </c>
       <c r="F197" t="n">
-        <v>0.04187021542186813</v>
+        <v>0.8920165660776632</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.3486</v>
+        <v>5.3619</v>
       </c>
       <c r="B198" t="n">
-        <v>5.940911942665219e-11</v>
+        <v>3.131398579952189e-10</v>
       </c>
       <c r="C198" t="n">
-        <v>2.05239395603844e-11</v>
+        <v>1.960591108132866e-11</v>
       </c>
       <c r="D198" t="n">
-        <v>0.2365276477470805</v>
+        <v>13.3169916863296</v>
       </c>
       <c r="E198" t="n">
-        <v>0.9997476529999746</v>
+        <v>0.03826934928734297</v>
       </c>
       <c r="F198" t="n">
-        <v>0.03942127462451342</v>
+        <v>2.219498614388266</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.3521</v>
+        <v>5.3639</v>
       </c>
       <c r="B199" t="n">
-        <v>8.194448089164969e-11</v>
+        <v>2.891480574156434e-10</v>
       </c>
       <c r="C199" t="n">
-        <v>2.893404002878135e-11</v>
+        <v>1.87608348273239e-11</v>
       </c>
       <c r="D199" t="n">
-        <v>0.5945186091453719</v>
+        <v>8.482583470710109</v>
       </c>
       <c r="E199" t="n">
-        <v>0.9964911645364186</v>
+        <v>0.2048355111696001</v>
       </c>
       <c r="F199" t="n">
-        <v>0.09908643485756198</v>
+        <v>1.413763911785018</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.3536</v>
+        <v>5.366</v>
       </c>
       <c r="B200" t="n">
-        <v>7.060929068317253e-11</v>
+        <v>2.734542158319396e-10</v>
       </c>
       <c r="C200" t="n">
-        <v>2.440336660426398e-11</v>
+        <v>1.891132163094855e-11</v>
       </c>
       <c r="D200" t="n">
-        <v>0.2434812016430039</v>
+        <v>7.029253084735704</v>
       </c>
       <c r="E200" t="n">
-        <v>0.9997254489422897</v>
+        <v>0.3181503656962839</v>
       </c>
       <c r="F200" t="n">
-        <v>0.04058020027383397</v>
+        <v>1.171542180789284</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.3579</v>
+        <v>5.368</v>
       </c>
       <c r="B201" t="n">
-        <v>9.544599172775752e-11</v>
+        <v>3.084341704926761e-10</v>
       </c>
       <c r="C201" t="n">
-        <v>3.313017928718342e-11</v>
+        <v>1.498963013747897e-11</v>
       </c>
       <c r="D201" t="n">
-        <v>0.3155809906698646</v>
+        <v>2.840393436837601</v>
       </c>
       <c r="E201" t="n">
-        <v>0.9994180306210977</v>
+        <v>0.8285960512947917</v>
       </c>
       <c r="F201" t="n">
-        <v>0.05259683177831077</v>
+        <v>0.4733989061396002</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.3598</v>
+        <v>5.3697</v>
       </c>
       <c r="B202" t="n">
-        <v>8.859583662338017e-11</v>
+        <v>3.247396844809813e-10</v>
       </c>
       <c r="C202" t="n">
-        <v>3.077931329069136e-11</v>
+        <v>1.714908897655161e-11</v>
       </c>
       <c r="D202" t="n">
-        <v>0.3300743572856764</v>
+        <v>38.85375805649383</v>
       </c>
       <c r="E202" t="n">
-        <v>0.9993376891064505</v>
+        <v>7.64587619604081e-07</v>
       </c>
       <c r="F202" t="n">
-        <v>0.05501239288094607</v>
+        <v>6.475626342748972</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.3619</v>
+        <v>5.3748</v>
       </c>
       <c r="B203" t="n">
-        <v>8.704113816713987e-11</v>
+        <v>3.30810875362275e-10</v>
       </c>
       <c r="C203" t="n">
-        <v>2.993597142152986e-11</v>
+        <v>1.165528333045053e-11</v>
       </c>
       <c r="D203" t="n">
-        <v>0.161381328340845</v>
+        <v>10.66871926580595</v>
       </c>
       <c r="E203" t="n">
-        <v>0.999917569251314</v>
+        <v>0.09917074689871667</v>
       </c>
       <c r="F203" t="n">
-        <v>0.02689688805680751</v>
+        <v>1.778119877634326</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.3639</v>
+        <v>5.3801</v>
       </c>
       <c r="B204" t="n">
-        <v>8.456363689293581e-11</v>
+        <v>3.450638522899804e-10</v>
       </c>
       <c r="C204" t="n">
-        <v>2.914882820757795e-11</v>
+        <v>1.059755043860344e-11</v>
       </c>
       <c r="D204" t="n">
-        <v>0.1990090868139554</v>
+        <v>9.858224860271724</v>
       </c>
       <c r="E204" t="n">
-        <v>0.9998475779322714</v>
+        <v>0.1307508509582024</v>
       </c>
       <c r="F204" t="n">
-        <v>0.03316818113565924</v>
+        <v>1.643037476711954</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.366</v>
+        <v>5.3829</v>
       </c>
       <c r="B205" t="n">
-        <v>8.444416225765158e-11</v>
+        <v>3.567330895982548e-10</v>
       </c>
       <c r="C205" t="n">
-        <v>2.905843199020488e-11</v>
+        <v>9.96991919492655e-12</v>
       </c>
       <c r="D205" t="n">
-        <v>0.1704768277908165</v>
+        <v>9.7375382491789</v>
       </c>
       <c r="E205" t="n">
-        <v>0.9999031609894029</v>
+        <v>0.1361489160141426</v>
       </c>
       <c r="F205" t="n">
-        <v>0.02841280463180275</v>
+        <v>1.622923041529817</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.368</v>
+        <v>5.3833</v>
       </c>
       <c r="B206" t="n">
-        <v>7.661633688896489e-11</v>
+        <v>3.788331722276379e-10</v>
       </c>
       <c r="C206" t="n">
-        <v>2.636441335507912e-11</v>
+        <v>1.008550099195057e-11</v>
       </c>
       <c r="D206" t="n">
-        <v>0.1702506404480735</v>
+        <v>4.767234391681917</v>
       </c>
       <c r="E206" t="n">
-        <v>0.9999035377874606</v>
+        <v>0.5739948263920025</v>
       </c>
       <c r="F206" t="n">
-        <v>0.02837510674134558</v>
+        <v>0.7945390652803196</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.3697</v>
+        <v>5.3839</v>
       </c>
       <c r="B207" t="n">
-        <v>8.131649186360256e-11</v>
+        <v>3.470889841636759e-10</v>
       </c>
       <c r="C207" t="n">
-        <v>2.812911103646798e-11</v>
+        <v>8.941912823067955e-12</v>
       </c>
       <c r="D207" t="n">
-        <v>0.258483692002935</v>
+        <v>2.535987416778032</v>
       </c>
       <c r="E207" t="n">
-        <v>0.9996733381361915</v>
+        <v>0.8644185587689897</v>
       </c>
       <c r="F207" t="n">
-        <v>0.04308061533382251</v>
+        <v>0.4226645694630053</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.3748</v>
+        <v>5.386</v>
       </c>
       <c r="B208" t="n">
-        <v>4.726811193384358e-11</v>
+        <v>3.526340194501454e-10</v>
       </c>
       <c r="C208" t="n">
-        <v>1.622737303150246e-11</v>
+        <v>8.88343234287867e-12</v>
       </c>
       <c r="D208" t="n">
-        <v>0.1306146674042302</v>
+        <v>3.319388812923195</v>
       </c>
       <c r="E208" t="n">
-        <v>0.9999557923423156</v>
+        <v>0.7678232287524069</v>
       </c>
       <c r="F208" t="n">
-        <v>0.02176911123403837</v>
+        <v>0.5532314688205325</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.3801</v>
+        <v>5.3899</v>
       </c>
       <c r="B209" t="n">
-        <v>1.967373928193622e-11</v>
+        <v>3.67909038896584e-10</v>
       </c>
       <c r="C209" t="n">
-        <v>6.964713369609512e-12</v>
+        <v>8.567917434395763e-12</v>
       </c>
       <c r="D209" t="n">
-        <v>0.6360380619368532</v>
+        <v>5.953253569922277</v>
       </c>
       <c r="E209" t="n">
-        <v>0.9957688271517268</v>
+        <v>0.4284470038391651</v>
       </c>
       <c r="F209" t="n">
-        <v>0.1060063436561422</v>
+        <v>0.9922089283203794</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.3829</v>
+        <v>5.3931</v>
       </c>
       <c r="B210" t="n">
-        <v>1.268982887541212e-11</v>
+        <v>2.914611712113647e-10</v>
       </c>
       <c r="C210" t="n">
-        <v>4.445757815849334e-12</v>
+        <v>7.452180315859738e-12</v>
       </c>
       <c r="D210" t="n">
-        <v>0.4679679201373935</v>
+        <v>364.1338886445042</v>
       </c>
       <c r="E210" t="n">
-        <v>0.9982067321093143</v>
+        <v>1.424077326515544e-75</v>
       </c>
       <c r="F210" t="n">
-        <v>0.07799465335623225</v>
+        <v>60.6889814407507</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.3833</v>
+        <v>5.4034</v>
       </c>
       <c r="B211" t="n">
-        <v>2.104149722731895e-11</v>
+        <v>3.300516387629519e-10</v>
       </c>
       <c r="C211" t="n">
-        <v>7.331195123084298e-12</v>
+        <v>8.068263190074902e-12</v>
       </c>
       <c r="D211" t="n">
-        <v>0.3777273013108197</v>
+        <v>211.7389918438112</v>
       </c>
       <c r="E211" t="n">
-        <v>0.9990248519277589</v>
+        <v>6.000365003766418e-43</v>
       </c>
       <c r="F211" t="n">
-        <v>0.06295455021846995</v>
+        <v>35.28983197396854</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.3839</v>
+        <v>5.4141</v>
       </c>
       <c r="B212" t="n">
-        <v>1.636954579365289e-11</v>
+        <v>3.654493550787323e-10</v>
       </c>
       <c r="C212" t="n">
-        <v>5.850690761047661e-12</v>
+        <v>8.690270108896278e-12</v>
       </c>
       <c r="D212" t="n">
-        <v>0.7872376559141259</v>
+        <v>75.05182044790305</v>
       </c>
       <c r="E212" t="n">
-        <v>0.9924115033510421</v>
+        <v>3.745179060131101e-14</v>
       </c>
       <c r="F212" t="n">
-        <v>0.1312062759856877</v>
+        <v>12.50863674131718</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.386</v>
+        <v>5.4244</v>
       </c>
       <c r="B213" t="n">
-        <v>1.408073914285706e-11</v>
+        <v>3.4976864211276e-10</v>
       </c>
       <c r="C213" t="n">
-        <v>4.857817135785919e-12</v>
+        <v>9.01927938133126e-12</v>
       </c>
       <c r="D213" t="n">
-        <v>0.2136572807721136</v>
+        <v>12.41150305770197</v>
       </c>
       <c r="E213" t="n">
-        <v>0.9998124102869113</v>
+        <v>0.05339365178803846</v>
       </c>
       <c r="F213" t="n">
-        <v>0.03560954679535227</v>
+        <v>2.068583842950328</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.3899</v>
+        <v>5.4354</v>
       </c>
       <c r="B214" t="n">
-        <v>1.338713085086816e-11</v>
+        <v>3.422532110027399e-10</v>
       </c>
       <c r="C214" t="n">
-        <v>4.677230457768666e-12</v>
+        <v>8.237410966699266e-12</v>
       </c>
       <c r="D214" t="n">
-        <v>0.4232424755345834</v>
+        <v>8.830397263851035</v>
       </c>
       <c r="E214" t="n">
-        <v>0.9986511426802269</v>
+        <v>0.1833434832841751</v>
       </c>
       <c r="F214" t="n">
-        <v>0.07054041258909723</v>
+        <v>1.471732877308506</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.3931</v>
+        <v>5.4393</v>
       </c>
       <c r="B215" t="n">
-        <v>1.352175113702647e-11</v>
+        <v>3.498443002148949e-10</v>
       </c>
       <c r="C215" t="n">
-        <v>4.736918380745012e-12</v>
+        <v>8.746715163121575e-12</v>
       </c>
       <c r="D215" t="n">
-        <v>0.466952080771846</v>
+        <v>6.531252635227008</v>
       </c>
       <c r="E215" t="n">
-        <v>0.9982177142350698</v>
+        <v>0.3663763902710129</v>
       </c>
       <c r="F215" t="n">
-        <v>0.07782534679530767</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>5.4034</v>
-      </c>
-      <c r="B216" t="n">
-        <v>1.158350507689422e-11</v>
-      </c>
-      <c r="C216" t="n">
-        <v>4.05263102398154e-12</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0.4456893927211567</v>
-      </c>
-      <c r="E216" t="n">
-        <v>0.9984380041273594</v>
-      </c>
-      <c r="F216" t="n">
-        <v>0.07428156545352611</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>5.4141</v>
-      </c>
-      <c r="B217" t="n">
-        <v>1.669420984906758e-11</v>
-      </c>
-      <c r="C217" t="n">
-        <v>5.877789809561285e-12</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0.5485410881084661</v>
-      </c>
-      <c r="E217" t="n">
-        <v>0.9971966810512005</v>
-      </c>
-      <c r="F217" t="n">
-        <v>0.09142351468474436</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>5.4244</v>
-      </c>
-      <c r="B218" t="n">
-        <v>1.573590100883371e-11</v>
-      </c>
-      <c r="C218" t="n">
-        <v>5.460701046555461e-12</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0.3114020720889923</v>
-      </c>
-      <c r="E218" t="n">
-        <v>0.9994399751482117</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0.05190034534816538</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>5.4354</v>
-      </c>
-      <c r="B219" t="n">
-        <v>1.68502293332215e-11</v>
-      </c>
-      <c r="C219" t="n">
-        <v>5.834460919481086e-12</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0.2745374977549575</v>
-      </c>
-      <c r="E219" t="n">
-        <v>0.9996109485054331</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0.04575624962582625</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>5.4393</v>
-      </c>
-      <c r="B220" t="n">
-        <v>1.642367131083274e-11</v>
-      </c>
-      <c r="C220" t="n">
-        <v>5.707963591928109e-12</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0.3363804469604623</v>
-      </c>
-      <c r="E220" t="n">
-        <v>0.9993006405760786</v>
-      </c>
-      <c r="F220" t="n">
-        <v>0.05606340782674372</v>
+        <v>1.088542105871168</v>
       </c>
     </row>
   </sheetData>
